--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aradl\Documents\GitHub\data-to-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F05BFB1-B360-46A5-905E-11EB5F00D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4C580-6C22-4558-AC58-03AC26B4D2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{C2AB0517-8C77-45F6-8174-133D86F9B3AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{C2AB0517-8C77-45F6-8174-133D86F9B3AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="333">
   <si>
     <t>ناوچەی لێکۆڵینەوە</t>
   </si>
@@ -904,6 +904,159 @@
   </si>
   <si>
     <t>Cinema</t>
+  </si>
+  <si>
+    <t>تاج و تەخت</t>
+  </si>
+  <si>
+    <t>Big Wash</t>
+  </si>
+  <si>
+    <t>Carwash</t>
+  </si>
+  <si>
+    <t>C.C Cafe And Rest</t>
+  </si>
+  <si>
+    <t>Kashkol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emprator Butcher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butcher </t>
+  </si>
+  <si>
+    <t>Baghdadi Butcher</t>
+  </si>
+  <si>
+    <t>Butcher</t>
+  </si>
+  <si>
+    <t>Qubadi Butcher</t>
+  </si>
+  <si>
+    <t>چایخانەی عومەر گەڵاڵی</t>
+  </si>
+  <si>
+    <t>چایخانە</t>
+  </si>
+  <si>
+    <t>کولێرە بە قیمەی میری سۆران</t>
+  </si>
+  <si>
+    <t>کولێرە</t>
+  </si>
+  <si>
+    <t>کەبابخانەی ئاشتی</t>
+  </si>
+  <si>
+    <t>برژاو</t>
+  </si>
+  <si>
+    <t>Hano Cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cars Dealership </t>
+  </si>
+  <si>
+    <t>میوانی سوڵتان</t>
+  </si>
+  <si>
+    <t>کافتریا</t>
+  </si>
+  <si>
+    <t>Klil House Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Makers </t>
+  </si>
+  <si>
+    <t>کۆمپانیای عقاراتی ماڵی تۆ</t>
+  </si>
+  <si>
+    <t>کڕین و فرۆشتنی زەوی و موڵک</t>
+  </si>
+  <si>
+    <t>Qasr Al-Wali Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanic </t>
+  </si>
+  <si>
+    <t>Restaurant, Hotel&amp;Spa</t>
+  </si>
+  <si>
+    <t>دەرمانخانەی حفید</t>
+  </si>
+  <si>
+    <t>شیرینی تاسووق</t>
+  </si>
+  <si>
+    <t>شیرینی فرۆش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دیزامۆ Dizamo </t>
+  </si>
+  <si>
+    <t>مارکێت</t>
+  </si>
+  <si>
+    <t>مۆبیلیاتی وایت هۆم White Home</t>
+  </si>
+  <si>
+    <t>مۆبیلیات</t>
+  </si>
+  <si>
+    <t>چەرەساتی علی بابا</t>
+  </si>
+  <si>
+    <t>چەرەس فرۆش</t>
+  </si>
+  <si>
+    <t>هەرێمی قەل</t>
+  </si>
+  <si>
+    <t>چێشتفرۆش</t>
+  </si>
+  <si>
+    <t>پاشای برنج</t>
+  </si>
+  <si>
+    <t>Tissot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissot Watch Dealer </t>
+  </si>
+  <si>
+    <t>ماڕکێتی میلاد پێنجوێنی</t>
+  </si>
+  <si>
+    <t>ماڕکێت</t>
+  </si>
+  <si>
+    <t>هەرزان بازاری ئەژیر</t>
+  </si>
+  <si>
+    <t>هەرزان بازاڕ</t>
+  </si>
+  <si>
+    <t>شوشەواتی مەیلی</t>
+  </si>
+  <si>
+    <t>شوشەوات</t>
+  </si>
+  <si>
+    <t>ماڕکێتی گوڵی مینا</t>
+  </si>
+  <si>
+    <t>شکۆی شار</t>
+  </si>
+  <si>
+    <t>مۆبلیات</t>
   </si>
 </sst>
 </file>
@@ -914,21 +1067,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Aptos Display"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -946,14 +1099,14 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Aptos Display"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -1014,10 +1167,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,6 +1223,114 @@
         <family val="1"/>
         <scheme val="major"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1294,114 +1555,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2859,26 +3012,26 @@
     <dataField name="Percentage" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="59">
+    <format dxfId="30">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="28">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2888,26 +3041,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="22">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2917,26 +3070,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="18">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="16">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2946,26 +3099,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="10">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3159,15 +3312,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{535B594A-705A-47EE-828A-180DCD641F71}" name="Records" displayName="Records" ref="A1:I3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I3" xr:uid="{535B594A-705A-47EE-828A-180DCD641F71}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6DDBDD14-633F-4ABA-9C76-65525EBC76D8}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{66AF660A-A14F-4045-B8CB-D76792F21429}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{83CC10A2-BAF8-4862-8643-B57D68F3E76E}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{B4812699-98AF-4B65-8C00-47F579AAA5C5}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{AF340D88-7668-4ECB-8B3B-3835501FD903}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{A6A791CE-3429-4B17-9898-B4D0E1551587}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{C811D6B1-52D5-4059-8C0B-D302CB5D2E05}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{B4600758-5D6A-4315-9602-B64AD3186DFF}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{D249D5C2-3A0D-4F27-83F4-A16DBB451849}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{6DDBDD14-633F-4ABA-9C76-65525EBC76D8}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{66AF660A-A14F-4045-B8CB-D76792F21429}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{83CC10A2-BAF8-4862-8643-B57D68F3E76E}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{B4812699-98AF-4B65-8C00-47F579AAA5C5}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{AF340D88-7668-4ECB-8B3B-3835501FD903}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{A6A791CE-3429-4B17-9898-B4D0E1551587}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{C811D6B1-52D5-4059-8C0B-D302CB5D2E05}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{B4600758-5D6A-4315-9602-B64AD3186DFF}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{D249D5C2-3A0D-4F27-83F4-A16DBB451849}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3177,36 +3330,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56CF5556-60E9-450A-96EA-2A93F7ACBA98}" name="Table1_1" displayName="Table1_1" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I2" xr:uid="{56CF5556-60E9-450A-96EA-2A93F7ACBA98}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5457E465-1523-4F7A-8EE7-C088FE127420}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{ADF28F8D-AC86-4A82-B5FA-F61AC06AAE20}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{D3F2FD61-936C-462A-B719-A6516FF06D09}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{39B60345-E43D-4C21-91CA-5E1F9E8A4771}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{7690E405-D68D-4E56-87CF-2DF553661D0F}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{23EBF398-36D3-416A-AE10-6418013A5C44}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{6A74790B-F5E8-411D-A20E-15B61B1218C4}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{76872C0E-1E31-4D1C-A141-533AE9CEA814}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{C486E8D0-D0AD-4CCB-BCC6-2A8AD3690FE4}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{5457E465-1523-4F7A-8EE7-C088FE127420}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{ADF28F8D-AC86-4A82-B5FA-F61AC06AAE20}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{D3F2FD61-936C-462A-B719-A6516FF06D09}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{39B60345-E43D-4C21-91CA-5E1F9E8A4771}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{7690E405-D68D-4E56-87CF-2DF553661D0F}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{23EBF398-36D3-416A-AE10-6418013A5C44}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{6A74790B-F5E8-411D-A20E-15B61B1218C4}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{76872C0E-1E31-4D1C-A141-533AE9CEA814}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{C486E8D0-D0AD-4CCB-BCC6-2A8AD3690FE4}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I132" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:I132" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I161" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:I161" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I132">
     <sortCondition ref="I1:I133"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{01D59742-640B-4956-AD2D-CDDEB6C2F71F}" name="ناو" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{0DE53E67-991B-4473-9CAA-ADC3B3F66999}" name="ناوچەی لێکۆڵینەوە" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{68B3ED75-A20F-4E5B-BB72-61BC76C692E3}" name="جۆری تابلۆ" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AD49EE1D-B3C7-4675-992A-D5649F6F9AAB}" name="جۆری بازرگانی" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{9F32E4D9-E1A7-4924-87B7-6B6270F38B7E}" name="شوێنی بازرگانی" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{CC62B2BE-4E45-4075-8CF7-405F33A536A9}" name="قەبارەی تابلۆ" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{901BF7DC-5F97-4BDD-98E0-C457561FDA21}" name="شوێنی تابلۆ" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{13A43650-EE8B-4D11-99EE-6C0545116F5E}" name="ئاستی نرخ" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{A7F7BCA0-3E68-4671-A567-C5F908070922}" name="Data Collector" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{01D59742-640B-4956-AD2D-CDDEB6C2F71F}" name="ناو" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{0DE53E67-991B-4473-9CAA-ADC3B3F66999}" name="ناوچەی لێکۆڵینەوە" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{68B3ED75-A20F-4E5B-BB72-61BC76C692E3}" name="جۆری تابلۆ" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{AD49EE1D-B3C7-4675-992A-D5649F6F9AAB}" name="جۆری بازرگانی" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{9F32E4D9-E1A7-4924-87B7-6B6270F38B7E}" name="شوێنی بازرگانی" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{CC62B2BE-4E45-4075-8CF7-405F33A536A9}" name="قەبارەی تابلۆ" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{901BF7DC-5F97-4BDD-98E0-C457561FDA21}" name="شوێنی تابلۆ" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{13A43650-EE8B-4D11-99EE-6C0545116F5E}" name="ئاستی نرخ" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{A7F7BCA0-3E68-4671-A567-C5F908070922}" name="Data Collector" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3535,7 +3688,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3549,19 +3702,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3590,7 +3743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3619,7 +3772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3664,19 +3817,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3705,7 +3858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3744,21 +3897,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB0C81-FE65-4E5D-9356-7842E6FE9EF2}">
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="79" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="61" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="35.75" style="11" customWidth="1"/>
+    <col min="1" max="9" width="35.77734375" style="11" customWidth="1"/>
     <col min="10" max="11" width="9" style="9" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="9"/>
+    <col min="12" max="12" width="25.44140625" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -3789,7 +3942,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>188</v>
       </c>
@@ -3818,7 +3971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>193</v>
       </c>
@@ -3847,7 +4000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -3875,9 +4028,9 @@
       <c r="I4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
@@ -3905,9 +4058,9 @@
       <c r="I5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>199</v>
       </c>
@@ -3936,7 +4089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
@@ -3965,7 +4118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>105</v>
       </c>
@@ -3994,7 +4147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>87</v>
       </c>
@@ -4023,7 +4176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>203</v>
       </c>
@@ -4052,7 +4205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>205</v>
       </c>
@@ -4081,7 +4234,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>112</v>
       </c>
@@ -4110,7 +4263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>110</v>
       </c>
@@ -4139,7 +4292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>109</v>
       </c>
@@ -4168,7 +4321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>96</v>
       </c>
@@ -4197,7 +4350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>94</v>
       </c>
@@ -4226,7 +4379,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>92</v>
       </c>
@@ -4255,7 +4408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
@@ -4284,7 +4437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>107</v>
       </c>
@@ -4313,7 +4466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>196</v>
       </c>
@@ -4342,7 +4495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>202</v>
       </c>
@@ -4371,7 +4524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>207</v>
       </c>
@@ -4400,7 +4553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>206</v>
       </c>
@@ -4429,7 +4582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>208</v>
       </c>
@@ -4458,7 +4611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>187</v>
       </c>
@@ -4487,7 +4640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>216</v>
       </c>
@@ -4516,7 +4669,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>219</v>
       </c>
@@ -4545,7 +4698,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>221</v>
       </c>
@@ -4574,7 +4727,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>223</v>
       </c>
@@ -4603,7 +4756,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>225</v>
       </c>
@@ -4632,7 +4785,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>227</v>
       </c>
@@ -4661,7 +4814,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>229</v>
       </c>
@@ -4690,7 +4843,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>231</v>
       </c>
@@ -4719,7 +4872,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>233</v>
       </c>
@@ -4748,7 +4901,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>235</v>
       </c>
@@ -4777,7 +4930,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>237</v>
       </c>
@@ -4806,7 +4959,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>239</v>
       </c>
@@ -4835,7 +4988,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>241</v>
       </c>
@@ -4864,7 +5017,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>243</v>
       </c>
@@ -4893,7 +5046,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>245</v>
       </c>
@@ -4922,7 +5075,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>246</v>
       </c>
@@ -4951,7 +5104,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>247</v>
       </c>
@@ -4980,7 +5133,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>248</v>
       </c>
@@ -5009,7 +5162,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>250</v>
       </c>
@@ -5038,7 +5191,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>252</v>
       </c>
@@ -5067,7 +5220,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>135</v>
       </c>
@@ -5096,7 +5249,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>254</v>
       </c>
@@ -5125,7 +5278,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>256</v>
       </c>
@@ -5154,7 +5307,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>258</v>
       </c>
@@ -5183,7 +5336,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>260</v>
       </c>
@@ -5212,7 +5365,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>27</v>
       </c>
@@ -5241,7 +5394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>171</v>
       </c>
@@ -5270,7 +5423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>45</v>
       </c>
@@ -5299,7 +5452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>67</v>
       </c>
@@ -5328,7 +5481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>29</v>
       </c>
@@ -5357,7 +5510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>194</v>
       </c>
@@ -5386,7 +5539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
@@ -5415,7 +5568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>69</v>
       </c>
@@ -5444,7 +5597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>179</v>
       </c>
@@ -5473,7 +5626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>32</v>
       </c>
@@ -5502,7 +5655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>40</v>
       </c>
@@ -5531,7 +5684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>169</v>
       </c>
@@ -5560,7 +5713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>24</v>
       </c>
@@ -5589,7 +5742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>159</v>
       </c>
@@ -5618,7 +5771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
@@ -5647,7 +5800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>165</v>
       </c>
@@ -5676,7 +5829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>59</v>
       </c>
@@ -5705,7 +5858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>57</v>
       </c>
@@ -5734,7 +5887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>167</v>
       </c>
@@ -5763,7 +5916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>163</v>
       </c>
@@ -5792,7 +5945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>170</v>
       </c>
@@ -5821,7 +5974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>75</v>
       </c>
@@ -5850,7 +6003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>157</v>
       </c>
@@ -5879,7 +6032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>53</v>
       </c>
@@ -5908,7 +6061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>47</v>
       </c>
@@ -5937,7 +6090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>63</v>
       </c>
@@ -5966,7 +6119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>73</v>
       </c>
@@ -5995,7 +6148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>181</v>
       </c>
@@ -6024,7 +6177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>71</v>
       </c>
@@ -6053,7 +6206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>184</v>
       </c>
@@ -6082,7 +6235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>51</v>
       </c>
@@ -6111,7 +6264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>173</v>
       </c>
@@ -6140,7 +6293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>177</v>
       </c>
@@ -6169,7 +6322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>65</v>
       </c>
@@ -6198,7 +6351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>35</v>
       </c>
@@ -6227,7 +6380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>182</v>
       </c>
@@ -6256,7 +6409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>55</v>
       </c>
@@ -6285,7 +6438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>49</v>
       </c>
@@ -6314,7 +6467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>185</v>
       </c>
@@ -6343,7 +6496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>175</v>
       </c>
@@ -6372,7 +6525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>42</v>
       </c>
@@ -6401,7 +6554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>209</v>
       </c>
@@ -6430,7 +6583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>211</v>
       </c>
@@ -6459,7 +6612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>212</v>
       </c>
@@ -6488,7 +6641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>214</v>
       </c>
@@ -6517,384 +6670,384 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="13" t="s">
+      <c r="E96" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H96" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I96" s="13" t="s">
+      <c r="H96" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="13" t="s">
+      <c r="B97" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="13" t="s">
+      <c r="F97" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="I97" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E98" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="13" t="s">
+      <c r="E98" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" s="13" t="s">
+      <c r="B99" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I99" s="13" t="s">
+      <c r="E99" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B100" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="13" t="s">
+      <c r="B100" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E100" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="13" t="s">
+      <c r="F100" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="I100" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E101" s="13" t="s">
+      <c r="E101" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="13" t="s">
+      <c r="F101" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="I101" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" s="13" t="s">
+      <c r="B102" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="E102" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="13" t="s">
+      <c r="F102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E103" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="13" t="s">
+      <c r="F103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="13" t="s">
+      <c r="I103" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="13" t="s">
+      <c r="B104" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="13" t="s">
+      <c r="E104" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="13" t="s">
+      <c r="F104" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I104" s="13" t="s">
+      <c r="I104" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="E105" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="13" t="s">
+      <c r="F105" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="13" t="s">
+      <c r="I105" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E106" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="13" t="s">
+      <c r="F106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I106" s="13" t="s">
+      <c r="I106" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E107" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G107" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="13" t="s">
+      <c r="G107" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="13" t="s">
+      <c r="I107" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B108" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C108" s="13" t="s">
+      <c r="B108" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="E108" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I108" s="13" t="s">
+      <c r="F108" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>198</v>
       </c>
@@ -6923,7 +7076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>197</v>
       </c>
@@ -6952,7 +7105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>189</v>
       </c>
@@ -6981,7 +7134,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>133</v>
       </c>
@@ -7010,7 +7163,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>192</v>
       </c>
@@ -7039,7 +7192,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -7068,7 +7221,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>191</v>
       </c>
@@ -7097,7 +7250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>138</v>
       </c>
@@ -7126,7 +7279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>204</v>
       </c>
@@ -7155,7 +7308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>195</v>
       </c>
@@ -7184,7 +7337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>123</v>
       </c>
@@ -7213,7 +7366,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>126</v>
       </c>
@@ -7242,7 +7395,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>201</v>
       </c>
@@ -7271,7 +7424,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>151</v>
       </c>
@@ -7300,7 +7453,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>141</v>
       </c>
@@ -7329,7 +7482,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>150</v>
       </c>
@@ -7358,7 +7511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>144</v>
       </c>
@@ -7387,7 +7540,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>148</v>
       </c>
@@ -7416,7 +7569,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>146</v>
       </c>
@@ -7445,7 +7598,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>186</v>
       </c>
@@ -7474,7 +7627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>121</v>
       </c>
@@ -7503,7 +7656,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>114</v>
       </c>
@@ -7532,7 +7685,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>117</v>
       </c>
@@ -7561,7 +7714,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>190</v>
       </c>
@@ -7590,16 +7743,846 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A133"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7610,19 +8593,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{66D142FD-4E01-4F47-9F13-33047B87C17C}">
       <formula1>"گەورە,مامناوەند,پچووک"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G45 G49:G132 G134:G1048576" xr:uid="{52FA5747-FDD6-46D5-B658-7CAF9F4B1443}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G45 G49:G132 G143:G1048576" xr:uid="{52FA5747-FDD6-46D5-B658-7CAF9F4B1443}">
       <formula1>"سەرشەقام,ناو مۆڵ,کۆڵان,ناوبازاڕ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B132 B134:B1048576" xr:uid="{F4E3B7F3-4007-4AB1-8573-589BB09E1589}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{F4E3B7F3-4007-4AB1-8573-589BB09E1589}">
       <formula1>"جادەی سەرەکی,ناوچەی بازرگانی,ناوەندی فرۆشتن"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C132 C134:C1048576" xr:uid="{CA43A216-A0C1-439F-A94A-646899314D30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{CA43A216-A0C1-439F-A94A-646899314D30}">
       <formula1>"تابلۆی تەواو کوردی,تابلۆی تەواو بیانی,تابلۆی تێکەڵ,تابلۆی بەناو بیانی و نووسینی کوردی"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E132 E134:E1048576" xr:uid="{C76832AF-D59E-47FA-8DEF-C13DE72F57F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{C76832AF-D59E-47FA-8DEF-C13DE72F57F8}">
       <formula1>"ناوچەی گران,ناوچەی مامناوەند,ناوچەی هەژار"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H132 H134:H1048576" xr:uid="{9AAAC0F3-9C9D-4517-ACCF-BE4D51CD0BEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{9AAAC0F3-9C9D-4517-ACCF-BE4D51CD0BEB}">
       <formula1>"هەرزان,مامناوەند,گران"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7640,7 +8623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7654,20 +8637,20 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7678,7 +8661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -7689,7 +8672,7 @@
         <v>0.40336134453781514</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -7700,7 +8683,7 @@
         <v>0.10084033613445378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -7711,7 +8694,7 @@
         <v>0.25210084033613445</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -7722,7 +8705,7 @@
         <v>0.24369747899159663</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -7733,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7747,14 +8730,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7764,7 +8747,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7774,7 +8757,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -7790,7 +8773,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -7806,7 +8789,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
@@ -7822,7 +8805,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>116</v>
       </c>
@@ -7838,7 +8821,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>125</v>
       </c>
@@ -7854,7 +8837,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>130</v>
       </c>
@@ -7870,7 +8853,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>140</v>
       </c>
@@ -7886,7 +8869,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>143</v>
       </c>
@@ -7902,7 +8885,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>156</v>
       </c>
@@ -7918,7 +8901,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>218</v>
       </c>
@@ -7934,7 +8917,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -7950,7 +8933,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7960,7 +8943,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7970,7 +8953,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7980,7 +8963,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7990,7 +8973,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8000,7 +8983,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8010,7 +8993,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8020,7 +9003,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8030,7 +9013,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -8040,7 +9023,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -8050,7 +9033,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -8060,7 +9043,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -8070,7 +9053,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8080,7 +9063,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8090,7 +9073,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8100,7 +9083,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8110,7 +9093,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8120,7 +9103,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8130,7 +9113,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8140,7 +9123,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8150,7 +9133,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8160,7 +9143,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30a5d8fdfa7f6ccf/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D64B5-E6C0-430A-AC73-0B5A8AADC3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7DEC79-1B4D-4F97-9C8F-A9BCE9A704C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{C2AB0517-8C77-45F6-8174-133D86F9B3AE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="449">
   <si>
     <t>ناوچەی لێکۆڵینەوە</t>
   </si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>bo karasaty binasazy</t>
-  </si>
-  <si>
-    <t>hawna</t>
   </si>
   <si>
     <t>Suli Grand</t>
@@ -1476,7 +1473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1505,12 +1502,367 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{557E83F1-ED94-4D8E-8630-C918AB429DE1}"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="129">
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1901,7 +2253,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="zhyar mustafa" refreshedDate="46057.57971377315" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{8E7CCD69-0902-4A85-8404-AAE65028BB18}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="zhyar mustafa" refreshedDate="46063.375962962964" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="227" xr:uid="{8E7CCD69-0902-4A85-8404-AAE65028BB18}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Main Table"/>
   </cacheSource>
@@ -1916,8 +2268,8 @@
       <sharedItems containsBlank="1" count="5">
         <s v="تابلۆی تەواو بیانی"/>
         <s v="تابلۆی بەناو بیانی و نووسینی کوردی"/>
+        <s v="تابلۆی تێکەڵ"/>
         <s v="تابلۆی تەواو کوردی"/>
-        <s v="تابلۆی تێکەڵ"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1937,18 +2289,21 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data Collector" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="14">
+        <s v="narin"/>
         <s v="Zeen Shwan"/>
         <s v="Mina Ahmed"/>
         <s v="Hama Kurda"/>
+        <s v="Dilov Zana"/>
+        <s v="Razan Mohammed"/>
+        <s v="Dina Rami"/>
+        <s v="Tina Adil"/>
         <s v="Azho Twana"/>
         <s v="Mina Botan"/>
-        <s v="Razan Mohammed"/>
-        <s v="hawna"/>
-        <s v="Tina Adil"/>
-        <s v="Dilov Zana"/>
+        <s v="Guest"/>
+        <s v="Hawna"/>
+        <s v="Ara Dleir"/>
         <m/>
-        <s v="Ara Dleir" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1961,7 +2316,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="227">
+  <r>
+    <s v="4u cafe"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="کافێ"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
   <r>
     <s v="99 Grill"/>
     <s v="جادەی سەرەکی"/>
@@ -1971,7 +2337,7 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="adil door"/>
@@ -1982,7 +2348,7 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="هەرزان"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Akam Company "/>
@@ -1993,7 +2359,73 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Aland Steakhouse"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="restaurant"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="amed"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="ریکلام"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Amigo grill house"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="چێشتخانە "/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Amsterdam Churros "/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Sweet Shop"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Arabica Coffee House"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="coffee shop"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Artukbey Kahve"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="قاوە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Ashley"/>
@@ -2004,7 +2436,18 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Avera"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Cosmetic "/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Ayala"/>
@@ -2015,7 +2458,7 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="3"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Ayub Car"/>
@@ -2026,7 +2469,29 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Baghdadi Butcher"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Butcher"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Big Wash"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Carwash"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="BrightCastle Motors"/>
@@ -2037,7 +2502,7 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="BrownBird"/>
@@ -2048,13 +2513,79 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="هەرزان"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="C.C Cafe And Rest"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Cafe And Rest"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="CHIPASTA"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="چێشتخانە "/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Chocolab"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Sweet Shop"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="City Cinema"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Cinema"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="City Star"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Mall"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="ناو مۆڵ"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Construction Brand"/>
     <s v="جادەی سەرەکی"/>
     <x v="1"/>
     <s v="froshtni shti binasazi "/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Darwaza Oil"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="banzin xana"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
@@ -2070,29 +2601,18 @@
     <s v="پچووک"/>
     <s v="سەرشەقام"/>
     <s v="هەرزان"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dilman"/>
-    <s v="جادەی سەرەکی"/>
     <x v="2"/>
-    <s v="battery w wire w tabrid"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
   </r>
   <r>
     <s v="Diya Company"/>
     <s v="جادەی سەرەکی"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="For Mechanical And Electrical Service "/>
     <s v="ناوچەی مامناوەند"/>
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Elly Store"/>
@@ -2103,12 +2623,34 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Emprator Butcher "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Butcher "/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Espresso Lab "/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Cafe"/>
+    <s v="ناوچەی گران"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Estelle"/>
     <s v="جادەی سەرەکی"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="karastay nawm"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="پچووک"/>
@@ -2117,6 +2659,39 @@
     <x v="5"/>
   </r>
   <r>
+    <s v="Fancy Rest And Cafe"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Rest And Cafe"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="France Gallery"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Cosmetic "/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Gallery Monalisa"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Cafe"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
     <s v="Gamers Escape "/>
     <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
@@ -2125,7 +2700,40 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Gc Car Wash"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Car Wash"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Gc Sport Center"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Gym,Swimming Pool&amp;Spa"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Gellato"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Sweet Shop"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="German Electronic Mall"/>
@@ -2136,18 +2744,84 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Grabz"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="restaurant"/>
+    <s v="ناوچەی گران"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Haman Design"/>
+    <s v="ناوچەی بازرگانی"/>
     <x v="2"/>
+    <s v="design and implementation"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Hano Cars"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Cars Dealership "/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Hardees"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="fastfood"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Harlem Cars"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Car DealerShip"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Hawar Oil"/>
     <s v="جادەی سەرەکی"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Oil,Fuel,Gas"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HERZEN Pilates Studio"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Pilates studio"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="H-Hookah"/>
@@ -2158,7 +2832,7 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="High Smart"/>
@@ -2169,18 +2843,18 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Home Style"/>
+    <s v="جادەی سەرەکی"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="Home Style"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
     <s v="Home Style"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Honey baby"/>
@@ -2191,6 +2865,28 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="House Bakery"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Bakery"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Italia Ice Cream"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Sweet Shop"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="ناوبازاڕ"/>
+    <s v="هەرزان"/>
     <x v="3"/>
   </r>
   <r>
@@ -2202,18 +2898,40 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Joy Town Indoor Playground"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="یاری مناڵان"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="K2"/>
+    <s v="ناوچەی بازرگانی"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="Kansas "/>
+    <s v="Car wash"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Kansas Fried Chicken And Pizza"/>
     <s v="جادەی سەرەکی"/>
     <x v="0"/>
-    <s v="Xwardn"/>
+    <s v="Food"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="6"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="Kara Group"/>
@@ -2224,18 +2942,40 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="3"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Karaca"/>
     <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
-    <s v="Xwardn"/>
+    <s v="xwardn"/>
     <s v="ناوچەی گران"/>
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Kashkol"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Cafe And Rest"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="KFC"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="fast food"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="KIA"/>
@@ -2246,7 +2986,7 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="3"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Kitchen and Interior Design"/>
@@ -2260,37 +3000,59 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="kuleray mawat"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="kulera w samun froshtn"/>
-    <s v="ناوچەی هەژار"/>
-    <s v="گەورە"/>
-    <s v="کۆڵان"/>
-    <s v="هەرزان"/>
+    <s v="Klil House Co"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Key Makers "/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="La Villa"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Cafe And Rest"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
     <x v="3"/>
   </r>
   <r>
     <s v="Lai Lawk "/>
     <s v="جادەی سەرەکی"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="Cafe And Rest"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Lamasat Life"/>
+    <s v="جادەی سەرەکی"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="Lamasat Life"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
     <s v="Flower Shop"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="lamasat sara"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="رازاندنەوەی بۆنەکان"/>
+    <s v="ناوچەی گران"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Lavender Lingeries"/>
@@ -2301,6 +3063,94 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="laverna"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="2"/>
+    <s v="جوانکاری"/>
+    <s v="ناوچەی گران"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Legends"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Restaurant And Bar"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Lezzetli"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Sweet Shop"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Lumiese"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="restaurant"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Macaw"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Bag store"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Mango Outlet"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="جل و بەرگ"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="پچووک"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="margaret "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="مەکتەب"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Mars Bakery"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Bakery Shop And Cafe"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
     <x v="3"/>
   </r>
   <r>
@@ -2312,7 +3162,18 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Miami Barber"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="sartash"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Mix Game Center"/>
@@ -2323,23 +3184,34 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="MLT Food"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Restaurant "/>
+    <s v="ناوچەی گران"/>
+    <s v="پچووک"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
     <x v="3"/>
   </r>
   <r>
     <s v="Nashwan Phone "/>
     <s v="ناوچەی بازرگانی"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Mobile shop"/>
     <s v="ناوچەی گران"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Neon"/>
+    <s v="جادەی سەرەکی"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="Neon"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
     <s v="lights"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="مامناوەند"/>
@@ -2356,7 +3228,7 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Nwa Hotel"/>
@@ -2367,7 +3239,40 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="O'HAIR"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="salon"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="ONLY amazon"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="بالە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Pasha Sport Club"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Sport Club And Rest"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Penta"/>
@@ -2378,18 +3283,18 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Peshangay qan3 "/>
     <s v="جادەی سەرەکی"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="Karstay snai"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Piccolo cafe"/>
@@ -2400,6 +3305,28 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Planet Pharmacy"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="darmanxana"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="PS Lounge"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="restaurant and cafe"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
     <x v="4"/>
   </r>
   <r>
@@ -2414,45 +3341,100 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="qasabxanay salar"/>
+    <s v="Qaiwan City Nursery"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="rawza"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Qasr Al-Wali Hotel"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Hotel "/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Qubadi Butcher"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Butcher"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Renova"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Antique store"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Rolex By Sardar"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Watch Dealer "/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Royal Home"/>
     <s v="جادەی سەرەکی"/>
     <x v="2"/>
-    <s v="gosht froshtn "/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="radioy mi7rab"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="radio w fm"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Royal Home"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
     <s v="Home Decor"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="savian"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rozhina Dental Clinic"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="clinic dctory dan"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Sarkar Grooming Lounge"/>
     <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
-    <s v="salon"/>
+    <s v="سەرتاش"/>
     <s v="ناوچەی گران"/>
     <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Shahram Sweets"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Sweet Shop"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
     <x v="3"/>
@@ -2466,21 +3448,21 @@
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Shar cristal"/>
+    <s v="جادەی سەرەکی"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="Shar cristal"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
     <s v="Cristal"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="مامناوەند"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="shwan phone"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Shwan Phone"/>
     <s v="جادەی سەرەکی"/>
     <x v="1"/>
     <s v="froshtny mobile"/>
@@ -2488,10 +3470,21 @@
     <s v="مامناوەند"/>
     <s v="ناو مۆڵ"/>
     <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="snipers archery"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Silver Pharma"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="darman xana"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Snipers Archery"/>
     <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
     <s v="entertainment"/>
@@ -2499,505 +3492,21 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Suli Grand"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="3"/>
-    <s v="Restaurant "/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Soz Clinic"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="clinic"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="tajiran"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="xwardamani"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Teen company"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="Post w gaiandn"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="کۆڵان"/>
-    <s v="مامناوەند"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="The station "/>
-    <s v="جادەی سەرەکی"/>
-    <x v="0"/>
-    <s v="xwardn w fast food"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="warshay ismail"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="drust krdni klil"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="West Eye Hospital"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="0"/>
-    <s v="خەستەخانە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="zrebar"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="1"/>
-    <s v="xwardnamany"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="بەرگەر کینگ"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="1"/>
-    <s v="چێشتخانە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="پۆستی ستێرس"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="stairs"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="جوانکاری سیفەری حاجی یاسین"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="2"/>
-    <s v="froshtny jwankary"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="کۆڵان"/>
-    <s v="مامناوەند"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="جوانکاری یاداشت"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="pedawistyw jwankari w danany lazga bo sayara"/>
-    <s v="ناوچەی هەژار"/>
-    <s v="گەورە"/>
-    <s v="کۆڵان"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="چاڤیلاند"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="شاری یاری"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="چێشتخانەی خاڵە فەرە"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="چێشتخانە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="ناوبازاڕ"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="چەرەساتی نور ال-نادر"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="3"/>
-    <s v="چەرەسات"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="ناوبازاڕ"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="دەرمانخانەی کەیوان"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="دەرمانخانە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="سولی دیزاین"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="1"/>
-    <s v="دیزاین"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="صیدلیە ناوازە"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="دەرمانخانە"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="صیدلیە ئاڵتون"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="دەرمانخانە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="عقارات حاجی سەلام"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="2"/>
-    <s v="کڕین و فرۆشتنی زەوی"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="عقارات ڕاوێژکاری موڵک"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="کڕین و فرۆشتنی زەوی و خانوو "/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="عقاراتی شاری سلێمانی"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="Xanubara"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="عەقاراتی ڕەسەنی هەورامان"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="نوسینگەی موڵک"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="فررش و کومباری شازادە"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="2"/>
-    <s v="فەرش و کومبار"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="فڕنی کولێرەی ماوەت"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="کولێرە،سەموونی حەجەری،ناوشکێنە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="هەرزان"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="فندق گراند پلازا"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="1"/>
-    <s v="هۆتێل"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="فەرشی زادە"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="فەرش و کومبار"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="فەرشی مۆدێرن"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="فەرش فرۆش"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="کوشنچی گۆیژە"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="kushn krdn"/>
-    <s v="ناوچەی هەژار"/>
-    <s v="گەورە"/>
-    <s v="کۆڵان"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="کۆمپانیای شلیا"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="bo karasaty binasazy"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="کۆنسێپت ئینتیریرز"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="1"/>
-    <s v="دیزاین و جێ بە جێ کردنی دیکۆری ژوورەوە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="گص و پیتزا و هەمبەرگری مینام"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="چێشتخانە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="ماڕکێتی ژیلامۆ"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="froshtni xwardn"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="کۆڵان"/>
-    <s v="مامناوەند"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="مریشک فڕۆشی سان"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="mrishk froshtn"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="مریشک فڕۆشی ئارۆ"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="mrishk froshtn"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="کۆڵان"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="مطعم فیردەوس"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="چێشتخانە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="ناوەندی شار"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="froshtny shty karabayy w payzha"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="نوسینگەی نمایش"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="کڕینی خانوو زەوی شووقە"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="نۆرث"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="3"/>
-    <s v="ئاڵوگۆڕی دراو"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="وایت هوتێل"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="ئوتێل و ڕێستورانت"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="ئاراسی دەلاک"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="دەلاک"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="ئاسکۆڵ"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="2"/>
-    <s v="xwardamany"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="هەرزان"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Shahram Sweets"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="0"/>
-    <s v="Sweet Shop"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Italia Ice Cream"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="0"/>
-    <s v="Sweet Shop"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="ناوبازاڕ"/>
-    <s v="هەرزان"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Gc Sport Center"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="0"/>
-    <s v="Gym,Swimming Pool&amp;Spa"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Arabica Coffee House"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="0"/>
-    <s v="coffee shop"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Qaiwan city sport hub"/>
+    <s v="Sport Hub"/>
     <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
     <s v="gym"/>
@@ -3005,120 +3514,164 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Suli Grand"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="2"/>
+    <s v="Restaurant "/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="taniya "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="دیزاین"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="پچووک"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Teen company"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="Post w gaiandn"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="The Station"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="xwardn w fast food"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="k2"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="3"/>
-    <s v="Car wash"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="miami barber"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="0"/>
-    <s v="sartash"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Silver Pharma"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="1"/>
-    <s v="darman xana"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Darwaza Oil"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="banzin xana"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Qaiwan City nursery"/>
+    <s v="Tissot"/>
     <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
-    <s v="rawza"/>
+    <s v="Tissot Watch Dealer "/>
+    <s v="ناوچەی گران"/>
+    <s v="مامناوەند"/>
+    <s v="ناو مۆڵ"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Titanic "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="Restaurant, Hotel&amp;Spa"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Today’s baby"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="فرۆشتنی شتی مناڵان"/>
     <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="مامناوەند"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="rozhina dental clinic"/>
-    <s v="جادەی سەرەکی"/>
+    <s v="پچووک"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
     <x v="0"/>
-    <s v="clinic dctory dan"/>
+  </r>
+  <r>
+    <s v="UK Kids"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="جل و بەرگی مناڵان"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="mobilyaty sardam"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Vogue Avenue "/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="Clothes Shop"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Vogue car wash"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="غەسلی سەیارە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="West Eye Hospital"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="خەستەخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Zand Shop"/>
     <s v="جادەی سەرەکی"/>
     <x v="2"/>
-    <s v="mobylyat"/>
+    <s v="jwan kary naw mal"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="planet pharmacy"/>
-    <s v="جادەی سەرەکی"/>
+    <s v="مامناوەند"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Zero Game Center"/>
+    <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
-    <s v="darmanxana"/>
+    <s v="Game Center"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="samun xanay guly darwaza"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="2"/>
-    <s v="samun xana"/>
-    <s v="ناوچەی هەژار"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="هەرزان"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="haman design "/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="3"/>
-    <s v="design and implementation"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ziny"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="USA All Brands"/>
     <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="lumiese"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Zoya Restaurant"/>
     <s v="ناوچەی بازرگانی"/>
     <x v="0"/>
     <s v="restaurant"/>
@@ -3126,147 +3679,1126 @@
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="باران "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="ساردەمانی و شیرینی "/>
+    <s v="ناوچەی هەژار"/>
+    <s v="پچووک"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="بۆنی مارکە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="بۆن"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="بەرزی تاڤگە "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="نوسینگە"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="پچووک"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="بەرگەر کینگ"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="پاشای برنج"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="ناوبازاڕ"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="پۆستی ستێرس"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="stairs"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="پێشانگای هێڤار "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="فرۆشتنی کەرستەی بیناسازی "/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="تاج و تەخت"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="جوانکاری سیفەری حاجی یاسین"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="3"/>
+    <s v="froshtny jwankary"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="جوانکاری یاداشت"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="pedawistyw jwankari w danany lazga bo sayara"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="zand shop"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="jwan kary naw mal"/>
+    <s v="چاپخانەی ئەڵماس"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="چاپخانە"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="چاڤیلاند"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="شاری یاری"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="چایخانەی عومەر گەڵاڵی"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="چایخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="چێشتخانەی خاڵە فەرە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="ناوبازاڕ"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="چێشتخانەی نوێکار"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی گران"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="چەرەساتی علی بابا"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="چەرەس فرۆش"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="چەرەساتی نور ال-نادر"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="2"/>
+    <s v="چەرەسات"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="ناوبازاڕ"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="حواء"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="فڕۆشتنی جل و بەرگ"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="خاتوون"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مۆبیلیات"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="خواردەمەمی UK فرێش"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="فرۆشتنی خواردن"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="دانەر سێرڤس "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="خزمەتگوزاری ئۆتۆمبێل"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="دیزامۆ Dizamo "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="مارکێت"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="دییەی شار (٣)"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مارکێت"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="پچووک"/>
+    <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="دەرمانخانەی حفید"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="دەرمانخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="دەرمانخانەی کەیوان"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="دەرمانخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="دەرمانخانەی هەسنی "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="دەرمانخانە "/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="رادیۆی میحراب"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="radio w fm"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="soz clinic"/>
+    <s v="ڕێنما"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="فرۆشتنی دەرمان"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="پچووک"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="زڕێبار"/>
     <s v="جادەی سەرەکی"/>
     <x v="1"/>
-    <s v="clinic"/>
+    <s v="xwardnamany"/>
     <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="زەردەشت "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مۆبلیات"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="زەیتی سرووشتی کارما"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="زەیت فرۆشت"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="سافیان"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="0"/>
+    <s v="salon"/>
+    <s v="ناوچەی گران"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="grabbz"/>
+    <s v="ساڵۆن ئەکسەرای"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="ئارایشتگا"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="ساێمانی"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="هەرزان بازاڕ"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="سفیار حاجی حسێن"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="jwan kary"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="سوپەر مارکێتی فیردەوس"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مارکێت"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="سولی دیزاین"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="دیزاین"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="سەمونخانەی گوڵی دەروازە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="samun xana"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="شڤان "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="فەڕش و کومبار "/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="شکۆی شار"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مۆبلیات"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="شوشەواتی مەیلی"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="شوشەوات"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="شیرینی تاسووق"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="شیرینی فرۆش"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="صيدلية زێوێ "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="دەرمانسازی"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="صیدلیە ناوازە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="دەرمانخانە"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="صیدلیە ئاڵتون"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="دەرمانخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="عقارات حاجی سەلام"/>
     <s v="ناوچەی بازرگانی"/>
+    <x v="3"/>
+    <s v="کڕین و فرۆشتنی زەوی"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="عقارات ڕاوێژکاری موڵک"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="کڕین و فرۆشتنی زەوی و خانوو "/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="عقارات سەهەند حاجی سالار"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="نوسینگەی موڵک کڕین و فرۆشتن"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="عقاراتی شاری سلێمانی"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="Xanubara"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="عەقاراتی ڕەسەنی هەورامان"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="نوسینگەی موڵک"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="فررش و کومباری شازادە"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="3"/>
+    <s v="فەرش و کومبار"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="فرۆشگای دانیاڵ"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مەی فرۆش"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="فڕنی کولێرەی ماوەت"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="کولێرە،سەموونی حەجەری،ناوشکێنە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="فندق گراند پلازا"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="هۆتێل"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="فەرشی خانەدان"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="pedawesty naw mal"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="فەرشی زادە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="فەرش و کومبار"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="فەرشی فەخار"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="3"/>
+    <s v="دوکانی فەرش"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="فەرشی مۆدێرن"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="فەرش فرۆش"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="فەرشی ئیکۆ"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="فەرش و کومبار"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="قەسابخانەی سالار"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="gosht froshtn "/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="کارگەی ئاریا"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="کارگە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="پچووک"/>
+    <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
     <x v="0"/>
-    <s v="restaurant"/>
-    <s v="ناوچەی گران"/>
-    <s v="مامناوەند"/>
+  </r>
+  <r>
+    <s v="کریستاڵی طاوس ٢"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="فرۆشتنی کریستال"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="کوشنچی دیلمان"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="کوشنچی"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="ناوبازاڕ"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="کوشنچی گۆیژە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="kushn krdn"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="کولێرە بە قیمەی میری سۆران"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="کولێرە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="کۆمپانیای شلیا"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="bo karasaty binasazy"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="کۆمپانیای عقاراتی ماڵی تۆ"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="کڕین و فرۆشتنی زەوی و موڵک"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="aland steak house"/>
-    <s v="ناوچەی بازرگانی"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="کۆمپانیای ئەرکان عمر بۆ دەرگا"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="دەرگا"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="کۆنسێپت ئینتیریرز"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="دیزاین و جێ بە جێ کردنی دیکۆری ژوورەوە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="کەبابخانەی ئاشتی"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="برژاو"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="گص و پیتزا و هەمبەرگری مینام"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="گەص دارياس"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="خواردن"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="لای دایە گەورە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="لیرە فۆن"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="فرۆشتنی مۆبایل"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
     <x v="0"/>
-    <s v="restaurant"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="zoya"/>
-    <s v="ناوچەی بازرگانی"/>
+  </r>
+  <r>
+    <s v="مارکێتی M.H"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مارکێت"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="مارکێتی بلکیان "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مارکێت "/>
+    <s v="ناوچەی هەژار"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="مارکێتی ڕەحمان "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مارکێت "/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="مارکێتی ویژدانی شارەکەم"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مارکێت"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
     <x v="0"/>
-    <s v="restaurant"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="ps lounge"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="0"/>
-    <s v="restaurant and cafe"/>
-    <s v="ناوچەی گران"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="kfc"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="0"/>
-    <s v="fast food"/>
+  </r>
+  <r>
+    <s v="ماڕکێتی ژیلامۆ"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="froshtni xwardn"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="hardees"/>
-    <s v="ناوچەی بازرگانی"/>
-    <x v="0"/>
-    <s v="fastfood"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="tajiran"/>
+    <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="ماڕکێتی گوڵی مینا"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="ماڕکێت"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="ماڕکێتی میلاد پێنجوێنی"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="ماڕکێت"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="ماسی تاجیران"/>
     <s v="جادەی سەرەکی"/>
     <x v="2"/>
     <s v="restaurant"/>
     <s v="ناوچەی هەژار"/>
-    <s v="پچووک"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="هەرزان"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="مریشک فڕۆشی سان"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="mrishk froshtn"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="مریشک فڕۆشی ئارۆ"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="mrishk froshtn"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
     <s v="کۆڵان"/>
+    <s v="مامناوەند"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="مطعم فیردەوس"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="چێشتخانە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="مۆبلیاتی سەردەم"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="mobylyat"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="مۆبیلیاتی صادق بغدادی"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="مۆبیلیات"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="مۆبیلیاتی میر"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="مۆبیلیات"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="ناوبازاڕ"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="مۆبیلیاتی وایت هۆم White Home"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="مۆبیلیات"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="میوانی سوڵتان"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="کافتریا"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ناوەندی شار"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="froshtny shty karabayy w payzha"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="نوسینگەی نمایش"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="کڕینی خانوو زەوی شووقە"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="نۆرث"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="2"/>
+    <s v="ئاڵوگۆڕی دراو"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="نۆرینگەی پزیشکی لییانا"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="فرۆشتنی دەرمان"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="نیتۆ "/>
+    <s v="جادەی سەرەکی"/>
+    <x v="1"/>
+    <s v="مارکیت "/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="هەرزان بازاری ئەژیر"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="هەرزان بازاڕ"/>
+    <s v="ناوچەی هەژار"/>
+    <s v="مامناوەند"/>
+    <s v="سەرشەقام"/>
     <s v="هەرزان"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="هەرزان بازاڕی کارامە"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="0"/>
+    <s v="مارکێت"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="هەرێمی قەل"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="چێشتفرۆش"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="مامناوەند"/>
+    <s v="ناوبازاڕ"/>
+    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="وایت هوتێل"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="2"/>
+    <s v="ئوتێل و ڕێستورانت"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="گران"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="وەرشەی ئیسماعیل"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="drust krdni klil"/>
+    <s v="ناوچەی مامناوەند"/>
+    <s v="گەورە"/>
+    <s v="سەرشەقام"/>
+    <s v="مامناوەند"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="syvar haji yasin "/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="jwan kary"/>
-    <s v="ناوچەی هەژار"/>
-    <s v="مامناوەند"/>
-    <s v="سەرشەقام"/>
-    <s v="هەرزان"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="farshy xanadan"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="pedawesty naw mal"/>
+    <s v="ئاراسی دەلاک"/>
+    <s v="جادەی سەرەکی"/>
+    <x v="3"/>
+    <s v="دەلاک"/>
     <s v="ناوچەی مامناوەند"/>
     <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="مامناوەند"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="west eye"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="0"/>
-    <s v="xastaxanay chaw"/>
-    <s v="ناوچەی مامناوەند"/>
-    <s v="گەورە"/>
-    <s v="سەرشەقام"/>
-    <s v="گران"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="masy tajiran"/>
-    <s v="جادەی سەرەکی"/>
-    <x v="3"/>
-    <s v="restaurant"/>
-    <s v="ناوچەی هەژار"/>
-    <s v="مامناوەند"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ئاسکۆڵ"/>
+    <s v="ناوچەی بازرگانی"/>
+    <x v="3"/>
+    <s v="xwardamany"/>
+    <s v="ناوچەی گران"/>
+    <s v="گەورە"/>
     <s v="سەرشەقام"/>
     <s v="هەرزان"/>
     <x v="8"/>
@@ -3280,13 +4812,13 @@
     <m/>
     <m/>
     <m/>
-    <x v="9"/>
+    <x v="13"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F7D052-C509-449D-B2E9-0EBB57CC61B3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Labels">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F7D052-C509-449D-B2E9-0EBB57CC61B3}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Labels">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -3296,8 +4828,8 @@
         <item x="0"/>
         <item h="1" x="4"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3344,26 +4876,26 @@
     <dataField name="Percentage" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="30">
+    <format dxfId="99">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="98">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="97">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3373,26 +4905,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="93">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="91">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3402,26 +4934,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="87">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="86">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="85">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3431,26 +4963,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="81">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="80">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="79">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3474,8 +5006,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91474CDC-1D73-489F-851C-A19C8CF2868C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Data Collector">
-  <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91474CDC-1D73-489F-851C-A19C8CF2868C}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Data Collector">
+  <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3486,18 +5018,21 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="9"/>
+      <items count="15">
+        <item x="12"/>
+        <item h="1" x="13"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="5"/>
         <item x="2"/>
-        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="4"/>
         <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="7"/>
         <item x="6"/>
-        <item x="8"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3505,7 +5040,10 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -3533,6 +5071,15 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3553,26 +5100,26 @@
     <dataField name="Percentage" fld="8" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="75">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="74">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="73">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3582,7 +5129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="69">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3644,15 +5191,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{535B594A-705A-47EE-828A-180DCD641F71}" name="Records" displayName="Records" ref="A1:I3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I3" xr:uid="{535B594A-705A-47EE-828A-180DCD641F71}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6DDBDD14-633F-4ABA-9C76-65525EBC76D8}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{66AF660A-A14F-4045-B8CB-D76792F21429}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{83CC10A2-BAF8-4862-8643-B57D68F3E76E}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{B4812699-98AF-4B65-8C00-47F579AAA5C5}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{AF340D88-7668-4ECB-8B3B-3835501FD903}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{A6A791CE-3429-4B17-9898-B4D0E1551587}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{C811D6B1-52D5-4059-8C0B-D302CB5D2E05}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{B4600758-5D6A-4315-9602-B64AD3186DFF}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{D249D5C2-3A0D-4F27-83F4-A16DBB451849}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{6DDBDD14-633F-4ABA-9C76-65525EBC76D8}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{66AF660A-A14F-4045-B8CB-D76792F21429}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{83CC10A2-BAF8-4862-8643-B57D68F3E76E}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{B4812699-98AF-4B65-8C00-47F579AAA5C5}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{AF340D88-7668-4ECB-8B3B-3835501FD903}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{A6A791CE-3429-4B17-9898-B4D0E1551587}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{C811D6B1-52D5-4059-8C0B-D302CB5D2E05}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="122"/>
+    <tableColumn id="8" xr3:uid="{B4600758-5D6A-4315-9602-B64AD3186DFF}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{D249D5C2-3A0D-4F27-83F4-A16DBB451849}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3662,36 +5209,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56CF5556-60E9-450A-96EA-2A93F7ACBA98}" name="Table1_1" displayName="Table1_1" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I2" xr:uid="{56CF5556-60E9-450A-96EA-2A93F7ACBA98}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5457E465-1523-4F7A-8EE7-C088FE127420}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{ADF28F8D-AC86-4A82-B5FA-F61AC06AAE20}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{D3F2FD61-936C-462A-B719-A6516FF06D09}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{39B60345-E43D-4C21-91CA-5E1F9E8A4771}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{7690E405-D68D-4E56-87CF-2DF553661D0F}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{23EBF398-36D3-416A-AE10-6418013A5C44}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{6A74790B-F5E8-411D-A20E-15B61B1218C4}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{76872C0E-1E31-4D1C-A141-533AE9CEA814}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{C486E8D0-D0AD-4CCB-BCC6-2A8AD3690FE4}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{5457E465-1523-4F7A-8EE7-C088FE127420}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{ADF28F8D-AC86-4A82-B5FA-F61AC06AAE20}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{D3F2FD61-936C-462A-B719-A6516FF06D09}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{39B60345-E43D-4C21-91CA-5E1F9E8A4771}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{7690E405-D68D-4E56-87CF-2DF553661D0F}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{23EBF398-36D3-416A-AE10-6418013A5C44}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{6A74790B-F5E8-411D-A20E-15B61B1218C4}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{76872C0E-1E31-4D1C-A141-533AE9CEA814}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{C486E8D0-D0AD-4CCB-BCC6-2A8AD3690FE4}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I227" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I227" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="A1:I227" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I227">
     <sortCondition ref="A1:A227"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{01D59742-640B-4956-AD2D-CDDEB6C2F71F}" name="ناو" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{0DE53E67-991B-4473-9CAA-ADC3B3F66999}" name="ناوچەی لێکۆڵینەوە" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{68B3ED75-A20F-4E5B-BB72-61BC76C692E3}" name="جۆری تابلۆ" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{AD49EE1D-B3C7-4675-992A-D5649F6F9AAB}" name="جۆری بازرگانی" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{9F32E4D9-E1A7-4924-87B7-6B6270F38B7E}" name="شوێنی بازرگانی" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{CC62B2BE-4E45-4075-8CF7-405F33A536A9}" name="قەبارەی تابلۆ" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{901BF7DC-5F97-4BDD-98E0-C457561FDA21}" name="شوێنی تابلۆ" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{13A43650-EE8B-4D11-99EE-6C0545116F5E}" name="ئاستی نرخ" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{A7F7BCA0-3E68-4671-A567-C5F908070922}" name="Data Collector" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{01D59742-640B-4956-AD2D-CDDEB6C2F71F}" name="ناو" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{0DE53E67-991B-4473-9CAA-ADC3B3F66999}" name="ناوچەی لێکۆڵینەوە" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{68B3ED75-A20F-4E5B-BB72-61BC76C692E3}" name="جۆری تابلۆ" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{AD49EE1D-B3C7-4675-992A-D5649F6F9AAB}" name="جۆری بازرگانی" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{9F32E4D9-E1A7-4924-87B7-6B6270F38B7E}" name="شوێنی بازرگانی" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{CC62B2BE-4E45-4075-8CF7-405F33A536A9}" name="قەبارەی تابلۆ" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{901BF7DC-5F97-4BDD-98E0-C457561FDA21}" name="شوێنی تابلۆ" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{13A43650-EE8B-4D11-99EE-6C0545116F5E}" name="ئاستی نرخ" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{A7F7BCA0-3E68-4671-A567-C5F908070922}" name="Data Collector" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4231,7 +5778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB0C81-FE65-4E5D-9356-7842E6FE9EF2}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
@@ -4276,7 +5823,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>36</v>
@@ -4285,7 +5832,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>39</v>
@@ -4300,12 +5847,12 @@
         <v>34</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>36</v>
@@ -4394,7 +5941,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -4403,7 +5950,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
@@ -4418,12 +5965,12 @@
         <v>16</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>36</v>
@@ -4432,7 +5979,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>10</v>
@@ -4452,7 +5999,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>7</v>
@@ -4461,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
@@ -4476,12 +6023,12 @@
         <v>16</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -4490,7 +6037,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>10</v>
@@ -4510,7 +6057,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
@@ -4519,7 +6066,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>10</v>
@@ -4539,7 +6086,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>36</v>
@@ -4548,7 +6095,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>39</v>
@@ -4568,7 +6115,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>36</v>
@@ -4577,7 +6124,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>39</v>
@@ -4597,7 +6144,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>36</v>
@@ -4606,7 +6153,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>10</v>
@@ -4626,7 +6173,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -4684,7 +6231,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>36</v>
@@ -4693,7 +6240,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>39</v>
@@ -4713,7 +6260,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>36</v>
@@ -4722,7 +6269,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>10</v>
@@ -4800,7 +6347,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>36</v>
@@ -4809,7 +6356,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>10</v>
@@ -4829,7 +6376,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>7</v>
@@ -4838,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>10</v>
@@ -4853,12 +6400,12 @@
         <v>16</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>36</v>
@@ -4867,7 +6414,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>10</v>
@@ -4887,7 +6434,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>36</v>
@@ -4896,7 +6443,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>10</v>
@@ -4916,7 +6463,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>7</v>
@@ -4925,7 +6472,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>39</v>
@@ -4945,7 +6492,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>36</v>
@@ -4974,7 +6521,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>36</v>
@@ -4983,7 +6530,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>39</v>
@@ -4998,12 +6545,12 @@
         <v>34</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>36</v>
@@ -5032,7 +6579,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>36</v>
@@ -5041,7 +6588,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>39</v>
@@ -5090,7 +6637,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>36</v>
@@ -5099,7 +6646,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>10</v>
@@ -5119,7 +6666,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>7</v>
@@ -5128,7 +6675,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>10</v>
@@ -5143,12 +6690,12 @@
         <v>16</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>36</v>
@@ -5177,7 +6724,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>36</v>
@@ -5186,7 +6733,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>39</v>
@@ -5206,7 +6753,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>7</v>
@@ -5215,7 +6762,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>10</v>
@@ -5235,7 +6782,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -5244,7 +6791,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>10</v>
@@ -5259,7 +6806,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5293,7 +6840,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -5302,7 +6849,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>10</v>
@@ -5322,7 +6869,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>7</v>
@@ -5331,7 +6878,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>10</v>
@@ -5351,7 +6898,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>36</v>
@@ -5360,7 +6907,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>39</v>
@@ -5409,7 +6956,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>7</v>
@@ -5418,7 +6965,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>10</v>
@@ -5433,12 +6980,12 @@
         <v>16</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>7</v>
@@ -5447,7 +6994,7 @@
         <v>50</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>39</v>
@@ -5462,12 +7009,12 @@
         <v>16</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>36</v>
@@ -5476,7 +7023,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>39</v>
@@ -5496,7 +7043,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>7</v>
@@ -5505,7 +7052,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>39</v>
@@ -5520,12 +7067,12 @@
         <v>16</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>36</v>
@@ -5534,7 +7081,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>39</v>
@@ -5554,7 +7101,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>36</v>
@@ -5563,7 +7110,7 @@
         <v>50</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>39</v>
@@ -5583,7 +7130,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>7</v>
@@ -5592,7 +7139,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>10</v>
@@ -5607,7 +7154,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5670,7 +7217,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>36</v>
@@ -5679,7 +7226,7 @@
         <v>50</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>39</v>
@@ -5728,7 +7275,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>7</v>
@@ -5737,7 +7284,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>10</v>
@@ -5757,7 +7304,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>7</v>
@@ -5766,7 +7313,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>39</v>
@@ -5815,7 +7362,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>7</v>
@@ -5824,7 +7371,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>10</v>
@@ -5839,12 +7386,12 @@
         <v>16</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>7</v>
@@ -5853,7 +7400,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>39</v>
@@ -5868,12 +7415,12 @@
         <v>34</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>36</v>
@@ -5882,7 +7429,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>39</v>
@@ -5897,12 +7444,12 @@
         <v>34</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>36</v>
@@ -5931,7 +7478,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>7</v>
@@ -5960,7 +7507,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>36</v>
@@ -5969,7 +7516,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>10</v>
@@ -5989,7 +7536,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>7</v>
@@ -5998,7 +7545,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>39</v>
@@ -6013,7 +7560,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6047,7 +7594,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>7</v>
@@ -6076,7 +7623,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>36</v>
@@ -6085,7 +7632,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>39</v>
@@ -6105,7 +7652,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>36</v>
@@ -6114,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>10</v>
@@ -6134,7 +7681,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>36</v>
@@ -6143,7 +7690,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>39</v>
@@ -6163,7 +7710,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>36</v>
@@ -6172,7 +7719,7 @@
         <v>50</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>39</v>
@@ -6192,7 +7739,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>36</v>
@@ -6201,7 +7748,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>10</v>
@@ -6221,7 +7768,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>7</v>
@@ -6250,7 +7797,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>7</v>
@@ -6259,7 +7806,7 @@
         <v>50</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>10</v>
@@ -6279,7 +7826,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>36</v>
@@ -6288,7 +7835,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>39</v>
@@ -6308,7 +7855,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>36</v>
@@ -6317,7 +7864,7 @@
         <v>11</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>10</v>
@@ -6337,7 +7884,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>7</v>
@@ -6346,7 +7893,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>10</v>
@@ -6361,12 +7908,12 @@
         <v>16</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>7</v>
@@ -6375,7 +7922,7 @@
         <v>11</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>10</v>
@@ -6390,12 +7937,12 @@
         <v>16</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>36</v>
@@ -6404,7 +7951,7 @@
         <v>11</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>39</v>
@@ -6424,7 +7971,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>36</v>
@@ -6433,7 +7980,7 @@
         <v>11</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>81</v>
@@ -6448,12 +7995,12 @@
         <v>16</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>36</v>
@@ -6462,7 +8009,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>10</v>
@@ -6482,7 +8029,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>36</v>
@@ -6491,7 +8038,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>39</v>
@@ -6511,7 +8058,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>36</v>
@@ -6520,7 +8067,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>39</v>
@@ -6535,12 +8082,12 @@
         <v>34</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>7</v>
@@ -6569,7 +8116,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>7</v>
@@ -6578,7 +8125,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>10</v>
@@ -6685,7 +8232,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>36</v>
@@ -6694,7 +8241,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>39</v>
@@ -6714,7 +8261,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>7</v>
@@ -6738,12 +8285,12 @@
         <v>16</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>36</v>
@@ -6752,7 +8299,7 @@
         <v>11</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>39</v>
@@ -6767,12 +8314,12 @@
         <v>34</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>36</v>
@@ -6781,7 +8328,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>10</v>
@@ -6801,7 +8348,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>36</v>
@@ -6810,7 +8357,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>39</v>
@@ -6888,7 +8435,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>36</v>
@@ -6897,7 +8444,7 @@
         <v>11</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>39</v>
@@ -6912,12 +8459,12 @@
         <v>16</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>7</v>
@@ -6926,7 +8473,7 @@
         <v>11</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>10</v>
@@ -6941,7 +8488,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6975,7 +8522,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>7</v>
@@ -6984,7 +8531,7 @@
         <v>11</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>39</v>
@@ -6999,12 +8546,12 @@
         <v>34</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>36</v>
@@ -7013,7 +8560,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>10</v>
@@ -7033,7 +8580,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>36</v>
@@ -7042,7 +8589,7 @@
         <v>11</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>39</v>
@@ -7062,7 +8609,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>7</v>
@@ -7071,7 +8618,7 @@
         <v>11</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>10</v>
@@ -7086,12 +8633,12 @@
         <v>16</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>7</v>
@@ -7100,7 +8647,7 @@
         <v>11</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>10</v>
@@ -7120,7 +8667,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>36</v>
@@ -7129,7 +8676,7 @@
         <v>50</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>39</v>
@@ -7149,7 +8696,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>36</v>
@@ -7158,7 +8705,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>39</v>
@@ -7173,12 +8720,12 @@
         <v>16</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>7</v>
@@ -7187,7 +8734,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>10</v>
@@ -7202,12 +8749,12 @@
         <v>16</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>36</v>
@@ -7216,7 +8763,7 @@
         <v>11</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>39</v>
@@ -7294,7 +8841,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>36</v>
@@ -7323,7 +8870,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>36</v>
@@ -7332,7 +8879,7 @@
         <v>37</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>39</v>
@@ -7347,12 +8894,12 @@
         <v>34</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>7</v>
@@ -7381,7 +8928,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>36</v>
@@ -7390,7 +8937,7 @@
         <v>37</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>39</v>
@@ -7405,12 +8952,12 @@
         <v>16</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>7</v>
@@ -7419,7 +8966,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>39</v>
@@ -7434,12 +8981,12 @@
         <v>34</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>7</v>
@@ -7448,7 +8995,7 @@
         <v>50</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>39</v>
@@ -7468,7 +9015,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>36</v>
@@ -7492,7 +9039,7 @@
         <v>16</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7526,7 +9073,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>36</v>
@@ -7555,7 +9102,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>7</v>
@@ -7564,7 +9111,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>10</v>
@@ -7584,7 +9131,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>36</v>
@@ -7593,7 +9140,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>10</v>
@@ -7613,7 +9160,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>36</v>
@@ -7622,7 +9169,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>39</v>
@@ -7637,12 +9184,12 @@
         <v>34</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>36</v>
@@ -7651,7 +9198,7 @@
         <v>11</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>39</v>
@@ -7671,7 +9218,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>7</v>
@@ -7680,7 +9227,7 @@
         <v>11</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>10</v>
@@ -7700,7 +9247,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>36</v>
@@ -7709,7 +9256,7 @@
         <v>11</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>39</v>
@@ -7758,7 +9305,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>36</v>
@@ -7767,7 +9314,7 @@
         <v>50</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>39</v>
@@ -7782,12 +9329,12 @@
         <v>34</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>7</v>
@@ -7796,7 +9343,7 @@
         <v>11</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>39</v>
@@ -7816,7 +9363,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>36</v>
@@ -7825,7 +9372,7 @@
         <v>11</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>39</v>
@@ -7845,7 +9392,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>7</v>
@@ -7854,7 +9401,7 @@
         <v>11</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>10</v>
@@ -7869,12 +9416,12 @@
         <v>16</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>36</v>
@@ -7883,7 +9430,7 @@
         <v>43</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>81</v>
@@ -7898,12 +9445,12 @@
         <v>31</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>36</v>
@@ -7912,7 +9459,7 @@
         <v>43</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>39</v>
@@ -7932,7 +9479,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>36</v>
@@ -7941,7 +9488,7 @@
         <v>50</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>81</v>
@@ -7956,7 +9503,7 @@
         <v>31</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7990,7 +9537,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>36</v>
@@ -8048,7 +9595,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>36</v>
@@ -8057,7 +9604,7 @@
         <v>43</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>81</v>
@@ -8072,12 +9619,12 @@
         <v>31</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>36</v>
@@ -8106,7 +9653,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>7</v>
@@ -8130,12 +9677,12 @@
         <v>34</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>36</v>
@@ -8164,7 +9711,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>36</v>
@@ -8173,7 +9720,7 @@
         <v>50</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>39</v>
@@ -8222,7 +9769,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>36</v>
@@ -8231,7 +9778,7 @@
         <v>43</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>39</v>
@@ -8280,7 +9827,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>36</v>
@@ -8309,7 +9856,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>36</v>
@@ -8318,7 +9865,7 @@
         <v>43</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>39</v>
@@ -8367,7 +9914,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>36</v>
@@ -8376,7 +9923,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>39</v>
@@ -8391,12 +9938,12 @@
         <v>34</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>36</v>
@@ -8405,7 +9952,7 @@
         <v>43</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>39</v>
@@ -8425,7 +9972,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>36</v>
@@ -8434,7 +9981,7 @@
         <v>37</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>39</v>
@@ -8449,12 +9996,12 @@
         <v>34</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>36</v>
@@ -8463,7 +10010,7 @@
         <v>43</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>81</v>
@@ -8478,12 +10025,12 @@
         <v>31</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>36</v>
@@ -8492,7 +10039,7 @@
         <v>50</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>39</v>
@@ -8512,7 +10059,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>36</v>
@@ -8521,7 +10068,7 @@
         <v>43</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>81</v>
@@ -8536,12 +10083,12 @@
         <v>34</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>36</v>
@@ -8570,7 +10117,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>36</v>
@@ -8599,7 +10146,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>36</v>
@@ -8608,7 +10155,7 @@
         <v>43</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>81</v>
@@ -8623,12 +10170,12 @@
         <v>31</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>36</v>
@@ -8657,7 +10204,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>36</v>
@@ -8666,7 +10213,7 @@
         <v>50</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>39</v>
@@ -8681,12 +10228,12 @@
         <v>34</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>36</v>
@@ -8715,7 +10262,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>36</v>
@@ -8724,7 +10271,7 @@
         <v>43</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>81</v>
@@ -8739,12 +10286,12 @@
         <v>34</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>36</v>
@@ -8753,7 +10300,7 @@
         <v>43</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>10</v>
@@ -8773,7 +10320,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>7</v>
@@ -8802,7 +10349,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>36</v>
@@ -8811,7 +10358,7 @@
         <v>43</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>39</v>
@@ -8831,7 +10378,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>36</v>
@@ -8840,7 +10387,7 @@
         <v>43</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>81</v>
@@ -8855,12 +10402,12 @@
         <v>31</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>36</v>
@@ -8869,7 +10416,7 @@
         <v>50</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>81</v>
@@ -8884,12 +10431,12 @@
         <v>31</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>36</v>
@@ -8898,7 +10445,7 @@
         <v>43</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>39</v>
@@ -8947,7 +10494,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>36</v>
@@ -8956,7 +10503,7 @@
         <v>43</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>81</v>
@@ -8971,12 +10518,12 @@
         <v>31</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>36</v>
@@ -8985,7 +10532,7 @@
         <v>43</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E164" s="10" t="s">
         <v>81</v>
@@ -9000,12 +10547,12 @@
         <v>31</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>36</v>
@@ -9014,7 +10561,7 @@
         <v>43</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>81</v>
@@ -9034,7 +10581,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>36</v>
@@ -9043,7 +10590,7 @@
         <v>43</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>81</v>
@@ -9063,7 +10610,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>36</v>
@@ -9072,7 +10619,7 @@
         <v>43</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>39</v>
@@ -9092,7 +10639,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>36</v>
@@ -9101,7 +10648,7 @@
         <v>50</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>81</v>
@@ -9116,12 +10663,12 @@
         <v>31</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>36</v>
@@ -9179,7 +10726,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>7</v>
@@ -9188,7 +10735,7 @@
         <v>43</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>10</v>
@@ -9208,7 +10755,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>36</v>
@@ -9217,7 +10764,7 @@
         <v>50</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>39</v>
@@ -9237,7 +10784,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>36</v>
@@ -9246,7 +10793,7 @@
         <v>50</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>39</v>
@@ -9266,7 +10813,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>36</v>
@@ -9353,7 +10900,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>36</v>
@@ -9362,7 +10909,7 @@
         <v>43</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>81</v>
@@ -9440,7 +10987,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>36</v>
@@ -9449,7 +10996,7 @@
         <v>50</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>39</v>
@@ -9464,7 +11011,7 @@
         <v>34</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9498,7 +11045,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>7</v>
@@ -9507,7 +11054,7 @@
         <v>43</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>10</v>
@@ -9522,12 +11069,12 @@
         <v>16</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>36</v>
@@ -9536,7 +11083,7 @@
         <v>43</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>39</v>
@@ -9556,7 +11103,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>36</v>
@@ -9585,7 +11132,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>36</v>
@@ -9614,7 +11161,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>36</v>
@@ -9623,7 +11170,7 @@
         <v>43</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>39</v>
@@ -9638,12 +11185,12 @@
         <v>34</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>36</v>
@@ -9652,7 +11199,7 @@
         <v>50</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>39</v>
@@ -9667,12 +11214,12 @@
         <v>34</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>36</v>
@@ -9681,7 +11228,7 @@
         <v>43</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>39</v>
@@ -9696,12 +11243,12 @@
         <v>34</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>36</v>
@@ -9730,7 +11277,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>36</v>
@@ -9739,7 +11286,7 @@
         <v>43</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>39</v>
@@ -9759,7 +11306,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>36</v>
@@ -9783,12 +11330,12 @@
         <v>34</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>36</v>
@@ -9797,7 +11344,7 @@
         <v>43</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>39</v>
@@ -9817,7 +11364,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>36</v>
@@ -9826,7 +11373,7 @@
         <v>43</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>39</v>
@@ -9875,7 +11422,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>36</v>
@@ -9884,7 +11431,7 @@
         <v>43</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>39</v>
@@ -9933,7 +11480,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>36</v>
@@ -9942,7 +11489,7 @@
         <v>50</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>39</v>
@@ -9962,7 +11509,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>36</v>
@@ -9991,7 +11538,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>36</v>
@@ -10000,7 +11547,7 @@
         <v>37</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>39</v>
@@ -10015,12 +11562,12 @@
         <v>16</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>36</v>
@@ -10029,7 +11576,7 @@
         <v>43</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>39</v>
@@ -10049,7 +11596,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>36</v>
@@ -10058,7 +11605,7 @@
         <v>43</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>81</v>
@@ -10073,12 +11620,12 @@
         <v>31</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>36</v>
@@ -10087,7 +11634,7 @@
         <v>43</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>81</v>
@@ -10102,12 +11649,12 @@
         <v>31</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>36</v>
@@ -10116,7 +11663,7 @@
         <v>43</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>39</v>
@@ -10131,12 +11678,12 @@
         <v>34</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>36</v>
@@ -10165,7 +11712,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>36</v>
@@ -10174,7 +11721,7 @@
         <v>43</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>81</v>
@@ -10194,7 +11741,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>36</v>
@@ -10203,7 +11750,7 @@
         <v>43</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>81</v>
@@ -10223,7 +11770,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>36</v>
@@ -10232,7 +11779,7 @@
         <v>50</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>81</v>
@@ -10247,12 +11794,12 @@
         <v>31</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>36</v>
@@ -10281,7 +11828,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>36</v>
@@ -10310,7 +11857,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>36</v>
@@ -10339,7 +11886,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>36</v>
@@ -10348,7 +11895,7 @@
         <v>43</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>39</v>
@@ -10363,12 +11910,12 @@
         <v>16</v>
       </c>
       <c r="I211" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>36</v>
@@ -10377,7 +11924,7 @@
         <v>50</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>39</v>
@@ -10397,7 +11944,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>36</v>
@@ -10406,7 +11953,7 @@
         <v>43</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>39</v>
@@ -10421,12 +11968,12 @@
         <v>34</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>36</v>
@@ -10435,7 +11982,7 @@
         <v>50</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>39</v>
@@ -10455,7 +12002,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>36</v>
@@ -10464,7 +12011,7 @@
         <v>43</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>39</v>
@@ -10484,7 +12031,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>36</v>
@@ -10513,7 +12060,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>36</v>
@@ -10522,7 +12069,7 @@
         <v>43</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>39</v>
@@ -10571,7 +12118,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>36</v>
@@ -10580,7 +12127,7 @@
         <v>43</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>39</v>
@@ -10595,12 +12142,12 @@
         <v>34</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B220" s="10" t="s">
         <v>36</v>
@@ -10609,7 +12156,7 @@
         <v>37</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>81</v>
@@ -10624,12 +12171,12 @@
         <v>34</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>36</v>
@@ -10638,7 +12185,7 @@
         <v>43</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>81</v>
@@ -10658,7 +12205,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>36</v>
@@ -10667,7 +12214,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E222" s="10" t="s">
         <v>39</v>
@@ -10682,12 +12229,12 @@
         <v>34</v>
       </c>
       <c r="I222" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>36</v>
@@ -10696,7 +12243,7 @@
         <v>43</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>39</v>
@@ -10745,7 +12292,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>36</v>
@@ -10803,7 +12350,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B227" s="10" t="s">
         <v>7</v>
@@ -10880,7 +12427,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10911,52 +12458,52 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>48</v>
+      <c r="B4" s="12">
+        <v>102</v>
       </c>
       <c r="C4" s="4">
-        <v>0.40336134453781514</v>
+        <v>0.45132743362831856</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2">
-        <v>12</v>
+      <c r="B5" s="12">
+        <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>0.10084033613445378</v>
+        <v>7.0796460176991149E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2">
-        <v>30</v>
+      <c r="B6" s="12">
+        <v>67</v>
       </c>
       <c r="C6" s="4">
-        <v>0.25210084033613445</v>
+        <v>0.29646017699115046</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2">
-        <v>29</v>
+      <c r="B7" s="12">
+        <v>41</v>
       </c>
       <c r="C7" s="4">
-        <v>0.24369747899159663</v>
+        <v>0.18141592920353983</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2">
-        <v>119</v>
+      <c r="B8" s="12">
+        <v>226</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10972,15 +12519,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A686B0D-58F4-46E7-BA0F-E314E62C6BA4}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -11021,13 +12568,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>0.37815126050420167</v>
+        <v>2.2123893805309734E-2</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -11037,13 +12584,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="13">
+        <v>94</v>
       </c>
       <c r="C5" s="7">
-        <v>0.20168067226890757</v>
+        <v>0.41592920353982299</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -11053,13 +12600,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="B6" s="13">
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>4.2016806722689079E-2</v>
+        <v>9.7345132743362831E-2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -11069,13 +12616,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
+        <v>105</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
       </c>
       <c r="C7" s="7">
-        <v>2.5210084033613446E-2</v>
+        <v>2.2123893805309734E-2</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -11085,13 +12632,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="B8" s="13">
+        <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>3.3613445378151259E-2</v>
+        <v>3.9823008849557522E-2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -11101,13 +12648,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="1">
+        <v>119</v>
+      </c>
+      <c r="B9" s="13">
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2.5210084033613446E-2</v>
+        <v>1.3274336283185841E-2</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -11117,13 +12664,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7</v>
+        <v>128</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>5.8823529411764705E-2</v>
+        <v>1.3274336283185841E-2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -11133,13 +12680,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="B11" s="13">
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>2.5210084033613446E-2</v>
+        <v>8.4070796460176997E-2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -11149,13 +12696,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="1">
-        <v>25</v>
+        <v>374</v>
+      </c>
+      <c r="B12" s="13">
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>0.21008403361344538</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -11165,13 +12712,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>119</v>
+        <v>202</v>
+      </c>
+      <c r="B13" s="13">
+        <v>23</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0.10176991150442478</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -11180,9 +12727,15 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="13">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6.637168141592921E-2</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -11190,9 +12743,15 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="13">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.8672566371681415E-2</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11200,9 +12759,15 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.4247787610619468E-3</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -11210,9 +12775,15 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13">
+        <v>226</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BE2731-403F-4112-9B22-CCD77C47F6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F5E69B-2488-4277-86D0-3819D369F579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{C2AB0517-8C77-45F6-8174-133D86F9B3AE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="470">
   <si>
     <t>ناوچەی لێکۆڵینەوە</t>
   </si>
@@ -1303,6 +1303,171 @@
   </si>
   <si>
     <t>دیزاینکاری</t>
+  </si>
+  <si>
+    <t>میوانی مەولەوی</t>
+  </si>
+  <si>
+    <t>مەحەمەد کوردە</t>
+  </si>
+  <si>
+    <t>نارنج</t>
+  </si>
+  <si>
+    <t>ترشیات فرۆش</t>
+  </si>
+  <si>
+    <t>فرۆشگای پشکۆ</t>
+  </si>
+  <si>
+    <t>وەکیلی چەقۆی بەڕازیلی</t>
+  </si>
+  <si>
+    <t>جگەرخانەی ئارامی حەسەنی بلە بەهار</t>
+  </si>
+  <si>
+    <t>فرۆشگای بەرزنجە</t>
+  </si>
+  <si>
+    <t>فرۆشگای باڵندە</t>
+  </si>
+  <si>
+    <t>گەرماوی موفتی</t>
+  </si>
+  <si>
+    <t>گەرماوی ئافرەتان</t>
+  </si>
+  <si>
+    <t>نووسینگەی نامی</t>
+  </si>
+  <si>
+    <t>نووسینگەی خانووبەرە</t>
+  </si>
+  <si>
+    <t>کڵاشی دیلمان</t>
+  </si>
+  <si>
+    <t>کڵاش فرۆش</t>
+  </si>
+  <si>
+    <t>کەباب خانەی وەستا نەجمەدین</t>
+  </si>
+  <si>
+    <t>بلیارد و سنووکەری سەفین</t>
+  </si>
+  <si>
+    <t>هۆڵێ بلیارد</t>
+  </si>
+  <si>
+    <t>ڕوەکی یاسین اعشاب</t>
+  </si>
+  <si>
+    <t>ڕوەک فرۆش</t>
+  </si>
+  <si>
+    <t>ماڕکێتی هومان</t>
+  </si>
+  <si>
+    <t>Palkana</t>
+  </si>
+  <si>
+    <t>ئاڵوگۆڕ و بازرگانی</t>
+  </si>
+  <si>
+    <t>کۆمپانیای نیو ۆرکەرس</t>
+  </si>
+  <si>
+    <t>کۆمپانیای پاکردنەوە</t>
+  </si>
+  <si>
+    <t>بڵانس و میزانیە</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چاکردنی ئۆتۆمبێل </t>
+  </si>
+  <si>
+    <t>چەرەساتی قوبادی</t>
+  </si>
+  <si>
+    <t>چەرەسات فرۆش</t>
+  </si>
+  <si>
+    <t>ماڵی ئاغا</t>
+  </si>
+  <si>
+    <t>چەرەساتی بغدادی</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Eco Pharmacy</t>
+  </si>
+  <si>
+    <t>Lano Sweets</t>
+  </si>
+  <si>
+    <t>شیرینی و ساردەمەنی</t>
+  </si>
+  <si>
+    <t>یاری مناڵانی پاشا</t>
+  </si>
+  <si>
+    <t>پێشانگای ڕێژەن</t>
+  </si>
+  <si>
+    <t>جل و بەرگی وەرزشی</t>
+  </si>
+  <si>
+    <t>Akam Lighting</t>
+  </si>
+  <si>
+    <t>لایت و چلچرا</t>
+  </si>
+  <si>
+    <t>Aryan Game Center</t>
+  </si>
+  <si>
+    <t>یاری ئۆنلاین</t>
+  </si>
+  <si>
+    <t>پێشانگای هەستیار</t>
+  </si>
+  <si>
+    <t>پێشانگای بۆیە</t>
+  </si>
+  <si>
+    <t>ساردەمەنی لالۆ</t>
+  </si>
+  <si>
+    <t>ساردەمەنی</t>
+  </si>
+  <si>
+    <t>تاجی سلێمانی</t>
+  </si>
+  <si>
+    <t>سەمون خانە</t>
+  </si>
+  <si>
+    <t>ساردەمەنی و شیرینی لینا</t>
+  </si>
+  <si>
+    <t>ساردەمەنی و شیرینی</t>
+  </si>
+  <si>
+    <t>Pizza 2002</t>
+  </si>
+  <si>
+    <t>دڵشاد</t>
+  </si>
+  <si>
+    <t>تایە فرۆش</t>
+  </si>
+  <si>
+    <t>کوتاڵی خونچە</t>
+  </si>
+  <si>
+    <t>کوتاڵفرۆش</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1398,16 +1563,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4384,7 +4539,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F7D052-C509-449D-B2E9-0EBB57CC61B3}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Labels">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F7D052-C509-449D-B2E9-0EBB57CC61B3}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Labels">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4572,7 +4727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91474CDC-1D73-489F-851C-A19C8CF2868C}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Data Collector">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91474CDC-1D73-489F-851C-A19C8CF2868C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Data Collector">
   <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4803,8 +4958,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I227" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:I227" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I259" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:I259" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I227">
     <sortCondition ref="D1:D227"/>
   </sortState>
@@ -5355,10 +5510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB0C81-FE65-4E5D-9356-7842E6FE9EF2}">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -5430,207 +5585,207 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>321</v>
       </c>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>324</v>
       </c>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="E7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5664,60 +5819,60 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="E11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="E12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5838,89 +5993,89 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="E17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="E19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6012,60 +6167,60 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="E23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="E24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="8" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6099,31 +6254,31 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="14" t="s">
+      <c r="G26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6157,31 +6312,31 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="E28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6447,31 +6602,31 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="14" t="s">
+      <c r="E38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6650,118 +6805,118 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="15" t="s">
+      <c r="F45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="F46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="15" t="s">
+      <c r="B47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="15" t="s">
+      <c r="F47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="15" t="s">
+      <c r="B48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="15" t="s">
+      <c r="E48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6795,89 +6950,89 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="F50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="15" t="s">
+      <c r="E51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="15" t="s">
+      <c r="H51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="15" t="s">
+      <c r="E52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6911,60 +7066,60 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="15" t="s">
+      <c r="E54" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="15" t="s">
+      <c r="F55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6998,60 +7153,60 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="14" t="s">
+      <c r="F57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="14" t="s">
+      <c r="F58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="8" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7114,89 +7269,89 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="14" t="s">
+      <c r="B61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="14" t="s">
+      <c r="E61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="14" t="s">
+      <c r="H61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="14" t="s">
+      <c r="B62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="14" t="s">
+      <c r="E62" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="14" t="s">
+      <c r="B63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="14" t="s">
+      <c r="E63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7839,60 +7994,60 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="15" t="s">
+      <c r="F86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="14" t="s">
+      <c r="B87" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="14" t="s">
+      <c r="E87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="14" t="s">
+      <c r="I87" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8013,89 +8168,89 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="14" t="s">
+      <c r="B92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" s="14" t="s">
+      <c r="E92" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C93" s="15" t="s">
+      <c r="B93" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I93" s="15" t="s">
+      <c r="E93" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="15" t="s">
+      <c r="B94" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="15" t="s">
+      <c r="F94" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="I94" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8332,60 +8487,60 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" s="15" t="s">
+      <c r="B103" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="15" t="s">
+      <c r="F103" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="I103" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C104" s="15" t="s">
+      <c r="B104" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="15" t="s">
+      <c r="G104" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="I104" s="10" t="s">
         <v>326</v>
       </c>
     </row>
@@ -8622,31 +8777,31 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C113" s="14" t="s">
+      <c r="B113" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F113" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="14" t="s">
+      <c r="F113" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I113" s="14" t="s">
+      <c r="I113" s="8" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8709,60 +8864,60 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B116" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116" s="14" t="s">
+      <c r="B116" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H116" s="14" t="s">
+      <c r="E116" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I116" s="14" t="s">
+      <c r="I116" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C117" s="15" t="s">
+      <c r="B117" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D117" s="15" t="s">
+      <c r="D117" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E117" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I117" s="15" t="s">
+      <c r="E117" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8970,31 +9125,31 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H125" s="15" t="s">
+      <c r="F125" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -9115,2845 +9270,3773 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B130" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C130" s="15" t="s">
+      <c r="B130" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E130" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I130" s="15" t="s">
+      <c r="E130" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="15" t="s">
+      <c r="D131" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E131" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="15" t="s">
+      <c r="E131" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="H131" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C132" s="15" t="s">
+      <c r="B132" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="D132" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E132" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" s="15" t="s">
+      <c r="F132" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C133" s="15" t="s">
+      <c r="B133" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="D133" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E133" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H133" s="15" t="s">
+      <c r="E133" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" s="14" t="s">
+      <c r="F134" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H134" s="14" t="s">
+      <c r="H134" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I134" s="14" t="s">
+      <c r="I134" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B135" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" s="15" t="s">
+      <c r="B135" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D135" s="15" t="s">
+      <c r="D135" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="E135" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H135" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I135" s="15" t="s">
+      <c r="E135" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C136" s="15" t="s">
+      <c r="B136" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D136" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E136" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I136" s="15" t="s">
+      <c r="E136" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H137" s="14" t="s">
+      <c r="F137" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I137" s="14" t="s">
+      <c r="I137" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="15" t="s">
+      <c r="D138" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H138" s="15" t="s">
+      <c r="F138" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B139" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C139" s="15" t="s">
+      <c r="B139" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E139" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H139" s="15" t="s">
+      <c r="E139" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I139" s="15" t="s">
+      <c r="I139" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D140" s="15" t="s">
+      <c r="D140" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E140" s="15" t="s">
+      <c r="E140" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F140" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H140" s="15" t="s">
+      <c r="F140" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I140" s="15" t="s">
+      <c r="I140" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B141" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C141" s="15" t="s">
+      <c r="B141" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D141" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F141" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H141" s="15" t="s">
+      <c r="F141" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I141" s="15" t="s">
+      <c r="I141" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C142" s="14" t="s">
+      <c r="B142" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D142" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E142" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="14" t="s">
+      <c r="E142" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I142" s="14" t="s">
+      <c r="I142" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B143" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="15" t="s">
+      <c r="B143" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D143" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="E143" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F143" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H143" s="15" t="s">
+      <c r="F143" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I143" s="15" t="s">
+      <c r="I143" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C144" s="14" t="s">
+      <c r="B144" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D144" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E144" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" s="14" t="s">
+      <c r="E144" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I144" s="14" t="s">
+      <c r="I144" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B145" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C145" s="15" t="s">
+      <c r="B145" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D145" s="15" t="s">
+      <c r="D145" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E145" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F145" s="15" t="s">
+      <c r="E145" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G145" s="15" t="s">
+      <c r="G145" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H145" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I145" s="15" t="s">
+      <c r="H145" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I145" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F146" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H146" s="14" t="s">
+      <c r="F146" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I146" s="14" t="s">
+      <c r="I146" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F147" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H147" s="14" t="s">
+      <c r="F147" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I147" s="14" t="s">
+      <c r="I147" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C148" s="15" t="s">
+      <c r="B148" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F148" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="15" t="s">
+      <c r="F148" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I148" s="15" t="s">
+      <c r="I148" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B149" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C149" s="14" t="s">
+      <c r="B149" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="14" t="s">
+      <c r="F149" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I149" s="14" t="s">
+      <c r="I149" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B150" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="15" t="s">
+      <c r="B150" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E150" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" s="15" t="s">
+      <c r="E150" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I150" s="15" t="s">
+      <c r="I150" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B151" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C151" s="15" t="s">
+      <c r="B151" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E151" s="15" t="s">
+      <c r="E151" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F151" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="15" t="s">
+      <c r="F151" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I151" s="15" t="s">
+      <c r="I151" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" s="14" t="s">
+      <c r="B152" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E152" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H152" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I152" s="14" t="s">
+      <c r="E152" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I152" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B153" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C153" s="15" t="s">
+      <c r="B153" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="D153" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="E153" s="15" t="s">
+      <c r="E153" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F153" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H153" s="15" t="s">
+      <c r="F153" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I153" s="15" t="s">
+      <c r="I153" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B154" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C154" s="15" t="s">
+      <c r="B154" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="D154" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E154" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I154" s="15" t="s">
+      <c r="E154" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I154" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D155" s="15" t="s">
+      <c r="D155" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="E155" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F155" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" s="15" t="s">
+      <c r="F155" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I155" s="15" t="s">
+      <c r="I155" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C156" s="15" t="s">
+      <c r="B156" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="D156" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E156" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" s="15" t="s">
+      <c r="E156" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I156" s="15" t="s">
+      <c r="I156" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B157" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" s="14" t="s">
+      <c r="B157" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E157" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H157" s="14" t="s">
+      <c r="E157" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I157" s="14" t="s">
+      <c r="I157" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C158" s="15" t="s">
+      <c r="B158" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D158" s="15" t="s">
+      <c r="D158" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E158" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H158" s="15" t="s">
+      <c r="E158" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I158" s="15" t="s">
+      <c r="I158" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B159" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C159" s="14" t="s">
+      <c r="B159" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E159" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I159" s="14" t="s">
+      <c r="E159" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I159" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B160" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C160" s="15" t="s">
+      <c r="B160" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E160" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F160" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I160" s="15" t="s">
+      <c r="E160" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I160" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B161" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C161" s="15" t="s">
+      <c r="B161" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D161" s="15" t="s">
+      <c r="D161" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E161" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F161" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G161" s="15" t="s">
+      <c r="E161" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H161" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I161" s="15" t="s">
+      <c r="H161" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B162" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C162" s="15" t="s">
+      <c r="B162" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F162" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" s="15" t="s">
+      <c r="F162" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H162" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I162" s="15" t="s">
+      <c r="H162" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B163" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C163" s="15" t="s">
+      <c r="B163" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E163" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F163" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I163" s="15" t="s">
+      <c r="E163" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B164" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C164" s="15" t="s">
+      <c r="B164" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D164" s="15" t="s">
+      <c r="D164" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E164" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F164" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="15" t="s">
+      <c r="E164" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I164" s="15" t="s">
+      <c r="I164" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="15" t="s">
+      <c r="D165" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F165" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H165" s="15" t="s">
+      <c r="F165" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I165" s="15" t="s">
+      <c r="I165" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C166" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="15" t="s">
+      <c r="D166" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E166" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F166" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" s="15" t="s">
+      <c r="E166" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I166" s="15" t="s">
+      <c r="I166" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B167" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C167" s="15" t="s">
+      <c r="B167" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E167" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I167" s="15" t="s">
+      <c r="E167" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I167" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B168" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C168" s="15" t="s">
+      <c r="B168" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D168" s="15" t="s">
+      <c r="D168" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E168" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F168" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G168" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H168" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I168" s="15" t="s">
+      <c r="E168" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B169" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C169" s="15" t="s">
+      <c r="B169" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="D169" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E169" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I169" s="15" t="s">
+      <c r="E169" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I169" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B170" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C170" s="15" t="s">
+      <c r="B170" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="15" t="s">
+      <c r="D170" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E170" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="15" t="s">
+      <c r="E170" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I170" s="15" t="s">
+      <c r="I170" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C171" s="15" t="s">
+      <c r="B171" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E171" s="15" t="s">
+      <c r="E171" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F171" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H171" s="15" t="s">
+      <c r="F171" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I171" s="15" t="s">
+      <c r="I171" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B172" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C172" s="15" t="s">
+      <c r="B172" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D172" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E172" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F172" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" s="15" t="s">
+      <c r="E172" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I172" s="15" t="s">
+      <c r="I172" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B173" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C173" s="15" t="s">
+      <c r="B173" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D173" s="15" t="s">
+      <c r="D173" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E173" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F173" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I173" s="15" t="s">
+      <c r="E173" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I173" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B174" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C174" s="14" t="s">
+      <c r="B174" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D174" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E174" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F174" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H174" s="14" t="s">
+      <c r="E174" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I174" s="14" t="s">
+      <c r="I174" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B175" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C175" s="14" t="s">
+      <c r="B175" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E175" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F175" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H175" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I175" s="14" t="s">
+      <c r="E175" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I175" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B176" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C176" s="14" t="s">
+      <c r="B176" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E176" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G176" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H176" s="14" t="s">
+      <c r="E176" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I176" s="14" t="s">
+      <c r="I176" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C177" s="15" t="s">
+      <c r="B177" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="15" t="s">
+      <c r="D177" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E177" s="15" t="s">
+      <c r="E177" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F177" s="15" t="s">
+      <c r="F177" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G177" s="15" t="s">
+      <c r="G177" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H177" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I177" s="15" t="s">
+      <c r="H177" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I177" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B178" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" s="15" t="s">
+      <c r="B178" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D178" s="15" t="s">
+      <c r="D178" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E178" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H178" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I178" s="15" t="s">
+      <c r="E178" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I178" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B179" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C179" s="15" t="s">
+      <c r="B179" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="15" t="s">
+      <c r="D179" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E179" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H179" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I179" s="15" t="s">
+      <c r="E179" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B180" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C180" s="15" t="s">
+      <c r="B180" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D180" s="15" t="s">
+      <c r="D180" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E180" s="15" t="s">
+      <c r="E180" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F180" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H180" s="15" t="s">
+      <c r="F180" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I180" s="15" t="s">
+      <c r="I180" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B181" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C181" s="15" t="s">
+      <c r="B181" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D181" s="15" t="s">
+      <c r="D181" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E181" s="15" t="s">
+      <c r="E181" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F181" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H181" s="15" t="s">
+      <c r="F181" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I181" s="15" t="s">
+      <c r="I181" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B182" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C182" s="15" t="s">
+      <c r="B182" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D182" s="15" t="s">
+      <c r="D182" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="E182" s="15" t="s">
+      <c r="E182" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F182" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I182" s="15" t="s">
+      <c r="F182" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I182" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B183" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C183" s="14" t="s">
+      <c r="B183" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E183" s="14" t="s">
+      <c r="E183" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F183" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G183" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H183" s="14" t="s">
+      <c r="F183" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I183" s="14" t="s">
+      <c r="I183" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="14" t="s">
+      <c r="A184" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B184" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C184" s="14" t="s">
+      <c r="B184" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D184" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="E184" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F184" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G184" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H184" s="14" t="s">
+      <c r="F184" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I184" s="14" t="s">
+      <c r="I184" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B185" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C185" s="15" t="s">
+      <c r="B185" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D185" s="15" t="s">
+      <c r="D185" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="E185" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F185" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I185" s="15" t="s">
+      <c r="E185" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B186" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C186" s="15" t="s">
+      <c r="B186" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D186" s="15" t="s">
+      <c r="D186" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="E186" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F186" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I186" s="15" t="s">
+      <c r="E186" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="15" t="s">
+      <c r="A187" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B187" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C187" s="15" t="s">
+      <c r="B187" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D187" s="15" t="s">
+      <c r="D187" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="E187" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F187" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" s="15" t="s">
+      <c r="E187" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H187" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I187" s="15" t="s">
+      <c r="H187" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B188" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C188" s="15" t="s">
+      <c r="B188" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D188" s="15" t="s">
+      <c r="D188" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E188" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F188" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H188" s="15" t="s">
+      <c r="E188" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I188" s="15" t="s">
+      <c r="I188" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B189" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C189" s="15" t="s">
+      <c r="B189" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D189" s="15" t="s">
+      <c r="D189" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E189" s="15" t="s">
+      <c r="E189" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F189" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I189" s="15" t="s">
+      <c r="F189" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="14" t="s">
+      <c r="A190" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B190" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C190" s="14" t="s">
+      <c r="B190" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D190" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E190" s="14" t="s">
+      <c r="E190" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F190" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G190" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H190" s="14" t="s">
+      <c r="F190" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I190" s="14" t="s">
+      <c r="I190" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="14" t="s">
+      <c r="A191" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B191" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C191" s="14" t="s">
+      <c r="B191" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E191" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F191" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G191" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H191" s="14" t="s">
+      <c r="E191" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I191" s="14" t="s">
+      <c r="I191" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C192" s="14" t="s">
+      <c r="B192" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D192" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E192" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F192" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G192" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H192" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I192" s="14" t="s">
+      <c r="E192" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I192" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="14" t="s">
+      <c r="A193" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B193" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C193" s="14" t="s">
+      <c r="B193" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C193" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D193" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E193" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F193" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G193" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H193" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I193" s="14" t="s">
+      <c r="E193" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I193" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="15" t="s">
+      <c r="A194" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B194" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C194" s="15" t="s">
+      <c r="B194" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D194" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E194" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F194" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G194" s="15" t="s">
+      <c r="E194" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H194" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I194" s="15" t="s">
+      <c r="H194" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I194" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B195" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C195" s="15" t="s">
+      <c r="B195" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="E195" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I195" s="15" t="s">
+      <c r="E195" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I195" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="14" t="s">
+      <c r="A196" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B196" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C196" s="14" t="s">
+      <c r="B196" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E196" s="14" t="s">
+      <c r="E196" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F196" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G196" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H196" s="14" t="s">
+      <c r="F196" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I196" s="14" t="s">
+      <c r="I196" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="14" t="s">
+      <c r="A197" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C197" s="14" t="s">
+      <c r="B197" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D197" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E197" s="14" t="s">
+      <c r="E197" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F197" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G197" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H197" s="14" t="s">
+      <c r="F197" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H197" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I197" s="14" t="s">
+      <c r="I197" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="14" t="s">
+      <c r="A198" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C198" s="14" t="s">
+      <c r="B198" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D198" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E198" s="14" t="s">
+      <c r="E198" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F198" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G198" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H198" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I198" s="14" t="s">
+      <c r="F198" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I198" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="15" t="s">
+      <c r="D199" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E199" s="15" t="s">
+      <c r="E199" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F199" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G199" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H199" s="15" t="s">
+      <c r="F199" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H199" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I199" s="15" t="s">
+      <c r="I199" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B200" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C200" s="14" t="s">
+      <c r="B200" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D200" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E200" s="14" t="s">
+      <c r="E200" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F200" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G200" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H200" s="14" t="s">
+      <c r="F200" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H200" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I200" s="14" t="s">
+      <c r="I200" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="C201" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="15" t="s">
+      <c r="D201" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E201" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F201" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G201" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H201" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I201" s="15" t="s">
+      <c r="E201" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I201" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B202" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C202" s="15" t="s">
+      <c r="B202" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D202" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E202" s="15" t="s">
+      <c r="E202" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F202" s="15" t="s">
+      <c r="F202" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G202" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H202" s="15" t="s">
+      <c r="G202" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H202" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I202" s="15" t="s">
+      <c r="I202" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B203" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C203" s="15" t="s">
+      <c r="B203" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D203" s="15" t="s">
+      <c r="D203" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E203" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F203" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G203" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H203" s="15" t="s">
+      <c r="E203" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H203" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I203" s="15" t="s">
+      <c r="I203" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="14" t="s">
+      <c r="A204" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B204" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C204" s="14" t="s">
+      <c r="B204" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E204" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F204" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G204" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H204" s="14" t="s">
+      <c r="E204" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H204" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I204" s="14" t="s">
+      <c r="I204" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B205" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C205" s="15" t="s">
+      <c r="B205" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E205" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F205" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H205" s="15" t="s">
+      <c r="E205" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I205" s="15" t="s">
+      <c r="I205" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B206" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C206" s="15" t="s">
+      <c r="B206" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D206" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E206" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F206" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G206" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H206" s="15" t="s">
+      <c r="E206" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H206" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I206" s="15" t="s">
+      <c r="I206" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="15" t="s">
+      <c r="A207" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="15" t="s">
+      <c r="D207" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E207" s="15" t="s">
+      <c r="E207" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G207" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H207" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I207" s="15" t="s">
+      <c r="F207" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H207" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I207" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="15" t="s">
+      <c r="D208" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="E208" s="15" t="s">
+      <c r="E208" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F208" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G208" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H208" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I208" s="15" t="s">
+      <c r="F208" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H208" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I208" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B209" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C209" s="15" t="s">
+      <c r="B209" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C209" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="15" t="s">
+      <c r="D209" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E209" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F209" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H209" s="15" t="s">
+      <c r="E209" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H209" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I209" s="15" t="s">
+      <c r="I209" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C210" s="15" t="s">
+      <c r="B210" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D210" s="15" t="s">
+      <c r="D210" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E210" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F210" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H210" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I210" s="15" t="s">
+      <c r="E210" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F210" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I210" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C211" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="15" t="s">
+      <c r="D211" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E211" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F211" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H211" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I211" s="15" t="s">
+      <c r="E211" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I211" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C212" s="14" t="s">
+      <c r="C212" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E212" s="14" t="s">
+      <c r="E212" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F212" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G212" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H212" s="14" t="s">
+      <c r="F212" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I212" s="14" t="s">
+      <c r="I212" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B213" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C213" s="14" t="s">
+      <c r="B213" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D213" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="E213" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G213" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H213" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I213" s="14" t="s">
+      <c r="E213" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I213" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B214" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C214" s="15" t="s">
+      <c r="B214" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D214" s="15" t="s">
+      <c r="D214" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E214" s="15" t="s">
+      <c r="E214" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F214" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H214" s="15" t="s">
+      <c r="F214" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I214" s="15" t="s">
+      <c r="I214" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="14" t="s">
+      <c r="A215" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B215" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C215" s="14" t="s">
+      <c r="B215" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C215" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D215" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E215" s="14" t="s">
+      <c r="E215" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F215" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G215" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H215" s="14" t="s">
+      <c r="F215" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I215" s="14" t="s">
+      <c r="I215" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="14" t="s">
+      <c r="A216" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B216" s="14" t="s">
+      <c r="B216" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="14" t="s">
+      <c r="C216" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="D216" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E216" s="14" t="s">
+      <c r="E216" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F216" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H216" s="14" t="s">
+      <c r="F216" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I216" s="14" t="s">
+      <c r="I216" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="C217" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="15" t="s">
+      <c r="D217" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E217" s="15" t="s">
+      <c r="E217" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F217" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H217" s="15" t="s">
+      <c r="F217" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I217" s="15" t="s">
+      <c r="I217" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B218" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C218" s="14" t="s">
+      <c r="B218" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D218" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E218" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F218" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G218" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H218" s="14" t="s">
+      <c r="E218" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I218" s="14" t="s">
+      <c r="I218" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="14" t="s">
+      <c r="A219" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="C219" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D219" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E219" s="14" t="s">
+      <c r="E219" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F219" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G219" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H219" s="14" t="s">
+      <c r="F219" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I219" s="14" t="s">
+      <c r="I219" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="s">
+      <c r="A220" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="15" t="s">
+      <c r="D220" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E220" s="15" t="s">
+      <c r="E220" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F220" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H220" s="15" t="s">
+      <c r="F220" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G220" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I220" s="15" t="s">
+      <c r="I220" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D221" s="15" t="s">
+      <c r="D221" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E221" s="15" t="s">
+      <c r="E221" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F221" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H221" s="15" t="s">
+      <c r="F221" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H221" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I221" s="15" t="s">
+      <c r="I221" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C222" s="15" t="s">
+      <c r="C222" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D222" s="15" t="s">
+      <c r="D222" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E222" s="15" t="s">
+      <c r="E222" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F222" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H222" s="15" t="s">
+      <c r="F222" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I222" s="15" t="s">
+      <c r="I222" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B223" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C223" s="15" t="s">
+      <c r="B223" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C223" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D223" s="15" t="s">
+      <c r="D223" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E223" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F223" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H223" s="15" t="s">
+      <c r="E223" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I223" s="15" t="s">
+      <c r="I223" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="15" t="s">
+      <c r="A224" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B224" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C224" s="15" t="s">
+      <c r="C224" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D224" s="15" t="s">
+      <c r="D224" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E224" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F224" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H224" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I224" s="15" t="s">
+      <c r="E224" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I224" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B225" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C225" s="15" t="s">
+      <c r="B225" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D225" s="15" t="s">
+      <c r="D225" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E225" s="15" t="s">
+      <c r="E225" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F225" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G225" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H225" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I225" s="15" t="s">
+      <c r="F225" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I225" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B226" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C226" s="15" t="s">
+      <c r="B226" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="15" t="s">
+      <c r="D226" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E226" s="15" t="s">
+      <c r="E226" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F226" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G226" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H226" s="15" t="s">
+      <c r="F226" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I226" s="15" t="s">
+      <c r="I226" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B227" s="15" t="s">
+      <c r="B227" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="C227" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D227" s="15" t="s">
+      <c r="D227" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E227" s="15" t="s">
+      <c r="E227" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F227" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G227" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H227" s="15" t="s">
+      <c r="F227" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G227" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I227" s="15" t="s">
+      <c r="I227" s="10" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H228" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I228" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I230" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H232" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I232" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E238" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F238" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G238" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H238" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I238" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I239" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I240" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I241" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F242" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I242" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I243" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H244" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I244" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I245" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H246" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I246" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I248" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I252" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G254" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I254" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H257" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H258" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I258" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -11965,7 +13048,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{66D142FD-4E01-4F47-9F13-33047B87C17C}">
       <formula1>"گەورە,مامناوەند,پچووک"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G43 G131:G1048576 G47:G120" xr:uid="{52FA5747-FDD6-46D5-B658-7CAF9F4B1443}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G43 G47:G120 G131:G1048576" xr:uid="{52FA5747-FDD6-46D5-B658-7CAF9F4B1443}">
       <formula1>"سەرشەقام,ناو مۆڵ,کۆڵان,ناوبازاڕ"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{F4E3B7F3-4007-4AB1-8573-589BB09E1589}">
@@ -12037,7 +13120,7 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="2">
         <v>102</v>
       </c>
       <c r="C4" s="4">
@@ -12048,7 +13131,7 @@
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="2">
         <v>16</v>
       </c>
       <c r="C5" s="4">
@@ -12059,7 +13142,7 @@
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="2">
         <v>67</v>
       </c>
       <c r="C6" s="4">
@@ -12070,7 +13153,7 @@
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="2">
         <v>41</v>
       </c>
       <c r="C7" s="4">
@@ -12081,7 +13164,7 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="2">
         <v>226</v>
       </c>
       <c r="C8" s="4">
@@ -12149,7 +13232,7 @@
       <c r="A4" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="1">
         <v>94</v>
       </c>
       <c r="C4" s="7">
@@ -12165,7 +13248,7 @@
       <c r="A5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="7">
@@ -12181,7 +13264,7 @@
       <c r="A6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="1">
         <v>22</v>
       </c>
       <c r="C6" s="7">
@@ -12197,7 +13280,7 @@
       <c r="A7" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="1">
         <v>23</v>
       </c>
       <c r="C7" s="7">
@@ -12213,7 +13296,7 @@
       <c r="A8" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="1">
         <v>11</v>
       </c>
       <c r="C8" s="7">
@@ -12229,7 +13312,7 @@
       <c r="A9" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="1">
         <v>16</v>
       </c>
       <c r="C9" s="7">
@@ -12245,7 +13328,7 @@
       <c r="A10" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="7">
@@ -12261,7 +13344,7 @@
       <c r="A11" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="7">
@@ -12277,7 +13360,7 @@
       <c r="A12" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="1">
         <v>15</v>
       </c>
       <c r="C12" s="7">
@@ -12293,7 +13376,7 @@
       <c r="A13" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="7">
@@ -12309,7 +13392,7 @@
       <c r="A14" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>19</v>
       </c>
       <c r="C14" s="7">
@@ -12325,7 +13408,7 @@
       <c r="A15" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="7">
@@ -12341,7 +13424,7 @@
       <c r="A16" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="7">
@@ -12357,7 +13440,7 @@
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>226</v>
       </c>
       <c r="C17" s="7">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F5E69B-2488-4277-86D0-3819D369F579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7B2B7-0977-4D8E-9E8A-18A0019C07DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{C2AB0517-8C77-45F6-8174-133D86F9B3AE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="623">
   <si>
     <t>ناوچەی لێکۆڵینەوە</t>
   </si>
@@ -1308,9 +1308,6 @@
     <t>میوانی مەولەوی</t>
   </si>
   <si>
-    <t>مەحەمەد کوردە</t>
-  </si>
-  <si>
     <t>نارنج</t>
   </si>
   <si>
@@ -1468,6 +1465,468 @@
   </si>
   <si>
     <t>کوتاڵفرۆش</t>
+  </si>
+  <si>
+    <t>مطعم باخان</t>
+  </si>
+  <si>
+    <t>Bake For Me</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Latella Coffee House</t>
+  </si>
+  <si>
+    <t>قاوەخانە</t>
+  </si>
+  <si>
+    <t>Piccolo Coffee</t>
+  </si>
+  <si>
+    <t>Davela Coffee</t>
+  </si>
+  <si>
+    <t>قاوە خانە</t>
+  </si>
+  <si>
+    <t>Tamata Fresh</t>
+  </si>
+  <si>
+    <t>سەوزە فرۆش</t>
+  </si>
+  <si>
+    <t>Istanbul Sweet</t>
+  </si>
+  <si>
+    <t>Sweet Shop</t>
+  </si>
+  <si>
+    <t>خەجێ خانم</t>
+  </si>
+  <si>
+    <t>چێشتخانە و فرۆشگا</t>
+  </si>
+  <si>
+    <t>Zanko House</t>
+  </si>
+  <si>
+    <t>Kulera Ba Qimay Garden City</t>
+  </si>
+  <si>
+    <t>کولێرە فرۆش</t>
+  </si>
+  <si>
+    <t>Marwe</t>
+  </si>
+  <si>
+    <t>قاوەڵتی</t>
+  </si>
+  <si>
+    <t>Badrava Sweets</t>
+  </si>
+  <si>
+    <t>Juja Fast Food</t>
+  </si>
+  <si>
+    <t>Mazi 2</t>
+  </si>
+  <si>
+    <t>Chocolate Sarayi</t>
+  </si>
+  <si>
+    <t>Active Gym</t>
+  </si>
+  <si>
+    <t>هۆڵی لەش جوانی</t>
+  </si>
+  <si>
+    <t>Infinity Car Wash</t>
+  </si>
+  <si>
+    <t>ئۆتۆمبێل شۆرگا</t>
+  </si>
+  <si>
+    <t>X Gym</t>
+  </si>
+  <si>
+    <t>هۆلی لەش جوانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  سید ڕەشید پاقلاوەچی</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>فرۆشگای ئیلیکترۆنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Fried </t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>موحەمەد کوردە</t>
+  </si>
+  <si>
+    <t>سەرتاشخانەی پشتیوان</t>
+  </si>
+  <si>
+    <t>نوسینگەی سروشتی باڵامبۆ</t>
+  </si>
+  <si>
+    <t>نوسینگەی کڕین و فرۆشتنی موڵک</t>
+  </si>
+  <si>
+    <t>نوسینگەی موڵکی هەڵەبجە</t>
+  </si>
+  <si>
+    <t>خواردنگە</t>
+  </si>
+  <si>
+    <t>فرۆشگای بۆیاخ</t>
+  </si>
+  <si>
+    <t>جیهانی بۆن-عالم العطور</t>
+  </si>
+  <si>
+    <t>کولێرە بە قیمەی ڕەوەند</t>
+  </si>
+  <si>
+    <t>Rawsht fashion</t>
+  </si>
+  <si>
+    <t>قاوەی ئەسینا-Asina coffee</t>
+  </si>
+  <si>
+    <t>پروشەی زستان</t>
+  </si>
+  <si>
+    <t>شیرینی</t>
+  </si>
+  <si>
+    <t>کافتریای مام</t>
+  </si>
+  <si>
+    <t>فالودەی قەندیل</t>
+  </si>
+  <si>
+    <t>جوانکاری و سروشتی شڤان</t>
+  </si>
+  <si>
+    <t>ماسی و مریشکی حاجی</t>
+  </si>
+  <si>
+    <t>گیادەرمانی دەریا</t>
+  </si>
+  <si>
+    <t>گیادەرمان</t>
+  </si>
+  <si>
+    <t>چایخانەی شاکۆ</t>
+  </si>
+  <si>
+    <t>چێشتخانەی گۆران</t>
+  </si>
+  <si>
+    <t>گوڵەگەنم</t>
+  </si>
+  <si>
+    <t>کەبابخانەی سیروان</t>
+  </si>
+  <si>
+    <t>چێشتخانەی ڕەنگین</t>
+  </si>
+  <si>
+    <t>جیهانی قایش-Belt world</t>
+  </si>
+  <si>
+    <t>فرۆشگای قایش</t>
+  </si>
+  <si>
+    <t>دۆندرمەی پشوو</t>
+  </si>
+  <si>
+    <t>بەلەزەتخانە</t>
+  </si>
+  <si>
+    <t>نوسینگەی چیا</t>
+  </si>
+  <si>
+    <t>نوسینگەی گەشت و گوزار</t>
+  </si>
+  <si>
+    <t>ساردەمەنی ئامێز</t>
+  </si>
+  <si>
+    <t>گوڵی سروشتی بلاک ڕۆز</t>
+  </si>
+  <si>
+    <t>گوڵفرۆش</t>
+  </si>
+  <si>
+    <t>کافتریای ماڵی ئاغا</t>
+  </si>
+  <si>
+    <t>کەبابخانەی جارانی شار</t>
+  </si>
+  <si>
+    <t>چایخانەی بەرانان</t>
+  </si>
+  <si>
+    <t>فرۆشگای پەروەر</t>
+  </si>
+  <si>
+    <t>خواردەمەنی دان دۆک</t>
+  </si>
+  <si>
+    <t>خواردەمەنی</t>
+  </si>
+  <si>
+    <t>چێشتخانە و کەبابی سەهۆڵەکە</t>
+  </si>
+  <si>
+    <t>غەسل و ڕۆنگۆڕی بریسکە</t>
+  </si>
+  <si>
+    <t>غەسل</t>
+  </si>
+  <si>
+    <t>Gaziza gallery</t>
+  </si>
+  <si>
+    <t>خشڵ</t>
+  </si>
+  <si>
+    <t>لۆکە</t>
+  </si>
+  <si>
+    <t>جل و بەرگی مناڵ</t>
+  </si>
+  <si>
+    <t>ترشیاتی نارنج</t>
+  </si>
+  <si>
+    <t>ترشیات</t>
+  </si>
+  <si>
+    <t>Manola For US Brands</t>
+  </si>
+  <si>
+    <t>فرۆشگای کاڵای ئەمریکی</t>
+  </si>
+  <si>
+    <t>HappyTand</t>
+  </si>
+  <si>
+    <t>کلینکی ددان</t>
+  </si>
+  <si>
+    <t>دیکۆرڕتی وەستا کامیل</t>
+  </si>
+  <si>
+    <t>جوانکاری سەیارە</t>
+  </si>
+  <si>
+    <t>دیلمان جاف</t>
+  </si>
+  <si>
+    <t>سەنتەری کتێب و مەلزەمە</t>
+  </si>
+  <si>
+    <t>Vera Decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جوانکاری </t>
+  </si>
+  <si>
+    <t>قاوەخانەی مینا</t>
+  </si>
+  <si>
+    <t>پەیمانگای کاریزما</t>
+  </si>
+  <si>
+    <t>بۆخولی پۆلی ١٢</t>
+  </si>
+  <si>
+    <t>صەلاحی لەزگە</t>
+  </si>
+  <si>
+    <t>لەزگە و تابلۆ</t>
+  </si>
+  <si>
+    <t>مستەر ئۆیڵ</t>
+  </si>
+  <si>
+    <t>المصرف الأهلي العراقي</t>
+  </si>
+  <si>
+    <t>بانک</t>
+  </si>
+  <si>
+    <t>کۆمپانیای بێشکان</t>
+  </si>
+  <si>
+    <t>پەڕاوگە</t>
+  </si>
+  <si>
+    <t>Shake Shake</t>
+  </si>
+  <si>
+    <t>مارکێتی ئاودێر</t>
+  </si>
+  <si>
+    <t>نوسینگەی گوڵی جوان</t>
+  </si>
+  <si>
+    <t>عقارات</t>
+  </si>
+  <si>
+    <t>ئاژەڵ</t>
+  </si>
+  <si>
+    <t>Just Travel</t>
+  </si>
+  <si>
+    <t>گەشت و گوزار</t>
+  </si>
+  <si>
+    <t>Elian Donut</t>
+  </si>
+  <si>
+    <t>Ice Tak</t>
+  </si>
+  <si>
+    <t>طربوش</t>
+  </si>
+  <si>
+    <t>نووسینگەی ئەختەر خان</t>
+  </si>
+  <si>
+    <t>نووسینگەی شۆفێری</t>
+  </si>
+  <si>
+    <t>Mihrako Rest&amp;Cafe</t>
+  </si>
+  <si>
+    <t>Mihrako Hotel&amp;Spa</t>
+  </si>
+  <si>
+    <t>Dawa Hotel</t>
+  </si>
+  <si>
+    <t>مطعم شکار</t>
+  </si>
+  <si>
+    <t>پەیمانگای لاوک</t>
+  </si>
+  <si>
+    <t>پەیمانگا</t>
+  </si>
+  <si>
+    <t>پەیمانگای هاوس ئۆف ئینگڵش</t>
+  </si>
+  <si>
+    <t>پەیمانگای ستەدی</t>
+  </si>
+  <si>
+    <t>پەیمانگای یاد</t>
+  </si>
+  <si>
+    <t>Fat Burger</t>
+  </si>
+  <si>
+    <t>دیلمانی کوشنچی</t>
+  </si>
+  <si>
+    <t>Vitra</t>
+  </si>
+  <si>
+    <t>Spacetoon</t>
+  </si>
+  <si>
+    <t>یاری منداڵان</t>
+  </si>
+  <si>
+    <t>خنجیلە و ژیکەڵە</t>
+  </si>
+  <si>
+    <t>One Way Studio</t>
+  </si>
+  <si>
+    <t>ڕیکلامی سەیارە</t>
+  </si>
+  <si>
+    <t>NCC Carwash</t>
+  </si>
+  <si>
+    <t>NCC Oil</t>
+  </si>
+  <si>
+    <t>بەنزینخانە</t>
+  </si>
+  <si>
+    <t>Chaviland Zoo</t>
+  </si>
+  <si>
+    <t>باخچەی ئاژەڵان</t>
+  </si>
+  <si>
+    <t>ئەستێرە الشام</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Latona</t>
+  </si>
+  <si>
+    <t>شاری جوان</t>
+  </si>
+  <si>
+    <t>BBAC Bank</t>
+  </si>
+  <si>
+    <t>ڕزگاری جەڕاح</t>
+  </si>
+  <si>
+    <t>جەڕاح</t>
+  </si>
+  <si>
+    <t>هەبیب بەیروت</t>
+  </si>
+  <si>
+    <t>پێشەوە</t>
+  </si>
+  <si>
+    <t>فران سیسکۆ</t>
+  </si>
+  <si>
+    <t>وینە</t>
+  </si>
+  <si>
+    <t>چاڤی لاند</t>
+  </si>
+  <si>
+    <t>ئاکواپارکی چاڤیلاند</t>
+  </si>
+  <si>
+    <t>مەلەوانگە</t>
+  </si>
+  <si>
+    <t>ڕەوز شۆپ</t>
+  </si>
+  <si>
+    <t>2in1</t>
+  </si>
+  <si>
+    <t>مارکێتی ماروان</t>
   </si>
 </sst>
 </file>
@@ -4539,7 +4998,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F7D052-C509-449D-B2E9-0EBB57CC61B3}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Labels">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F7D052-C509-449D-B2E9-0EBB57CC61B3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Labels">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4727,7 +5186,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91474CDC-1D73-489F-851C-A19C8CF2868C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Data Collector">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91474CDC-1D73-489F-851C-A19C8CF2868C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Data Collector">
   <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4958,8 +5417,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I259" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:I259" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I373" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:I373" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I227">
     <sortCondition ref="D1:D227"/>
   </sortState>
@@ -5510,10 +5969,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB0C81-FE65-4E5D-9356-7842E6FE9EF2}">
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:M373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -5639,7 +6098,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -5786,7 +6245,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -5815,7 +6274,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -5873,7 +6332,7 @@
         <v>29</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -6134,7 +6593,7 @@
         <v>29</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -6163,7 +6622,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -6192,7 +6651,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -6221,7 +6680,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -6250,7 +6709,7 @@
         <v>27</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -6482,7 +6941,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -6540,7 +6999,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -6569,7 +7028,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -6656,7 +7115,7 @@
         <v>27</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -6917,7 +7376,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -6946,7 +7405,7 @@
         <v>29</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6975,7 +7434,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -7004,7 +7463,7 @@
         <v>29</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -7033,7 +7492,7 @@
         <v>29</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -7062,7 +7521,7 @@
         <v>29</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -7091,7 +7550,7 @@
         <v>29</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -7236,7 +7695,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -7265,7 +7724,7 @@
         <v>29</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -7294,7 +7753,7 @@
         <v>29</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -7323,7 +7782,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -7352,7 +7811,7 @@
         <v>29</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -7381,7 +7840,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -7439,7 +7898,7 @@
         <v>29</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -7700,7 +8159,7 @@
         <v>16</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -7729,7 +8188,7 @@
         <v>16</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -7758,7 +8217,7 @@
         <v>29</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -7787,7 +8246,7 @@
         <v>29</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -7845,7 +8304,7 @@
         <v>29</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -7932,7 +8391,7 @@
         <v>29</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -7990,7 +8449,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -8193,7 +8652,7 @@
         <v>29</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -8222,7 +8681,7 @@
         <v>29</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -8251,7 +8710,7 @@
         <v>16</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -8280,7 +8739,7 @@
         <v>29</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -8367,7 +8826,7 @@
         <v>29</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -8570,7 +9029,7 @@
         <v>16</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -8599,7 +9058,7 @@
         <v>29</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -8686,7 +9145,7 @@
         <v>16</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -8744,7 +9203,7 @@
         <v>16</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -8860,7 +9319,7 @@
         <v>16</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -9121,7 +9580,7 @@
         <v>16</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -9150,7 +9609,7 @@
         <v>16</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -9179,7 +9638,7 @@
         <v>29</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -9208,7 +9667,7 @@
         <v>16</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -9237,7 +9696,7 @@
         <v>16</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -9295,7 +9754,7 @@
         <v>29</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -9324,7 +9783,7 @@
         <v>27</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -9353,7 +9812,7 @@
         <v>16</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -9382,7 +9841,7 @@
         <v>16</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -9411,7 +9870,7 @@
         <v>16</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -9440,7 +9899,7 @@
         <v>29</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -9527,7 +9986,7 @@
         <v>16</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -9556,7 +10015,7 @@
         <v>16</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -9817,7 +10276,7 @@
         <v>16</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -9846,7 +10305,7 @@
         <v>16</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -9875,7 +10334,7 @@
         <v>16</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -9904,7 +10363,7 @@
         <v>16</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -9933,7 +10392,7 @@
         <v>29</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -9962,7 +10421,7 @@
         <v>16</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -10020,7 +10479,7 @@
         <v>16</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -10049,7 +10508,7 @@
         <v>16</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -10078,7 +10537,7 @@
         <v>16</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -10107,7 +10566,7 @@
         <v>16</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -10136,7 +10595,7 @@
         <v>29</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -10252,7 +10711,7 @@
         <v>29</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -10281,7 +10740,7 @@
         <v>27</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -10310,7 +10769,7 @@
         <v>16</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -10339,7 +10798,7 @@
         <v>16</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -10455,7 +10914,7 @@
         <v>16</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -10484,7 +10943,7 @@
         <v>16</v>
       </c>
       <c r="I171" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -10513,7 +10972,7 @@
         <v>16</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -10600,7 +11059,7 @@
         <v>29</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -10629,7 +11088,7 @@
         <v>27</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -11093,7 +11552,7 @@
         <v>29</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -11122,7 +11581,7 @@
         <v>29</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -11180,7 +11639,7 @@
         <v>29</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -11209,7 +11668,7 @@
         <v>16</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -11238,7 +11697,7 @@
         <v>16</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -11267,7 +11726,7 @@
         <v>29</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -11296,7 +11755,7 @@
         <v>16</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -11325,7 +11784,7 @@
         <v>16</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -11354,7 +11813,7 @@
         <v>29</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -11528,7 +11987,7 @@
         <v>29</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -11586,7 +12045,7 @@
         <v>16</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -11615,7 +12074,7 @@
         <v>29</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -11702,7 +12161,7 @@
         <v>29</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -11818,7 +12277,7 @@
         <v>16</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -11905,7 +12364,7 @@
         <v>16</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -12050,7 +12509,7 @@
         <v>29</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -12079,7 +12538,7 @@
         <v>16</v>
       </c>
       <c r="I226" s="10" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -12137,12 +12596,12 @@
         <v>29</v>
       </c>
       <c r="I228" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>31</v>
@@ -12151,7 +12610,7 @@
         <v>37</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>34</v>
@@ -12166,12 +12625,12 @@
         <v>29</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>31</v>
@@ -12180,7 +12639,7 @@
         <v>37</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>64</v>
@@ -12195,12 +12654,12 @@
         <v>27</v>
       </c>
       <c r="I230" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>31</v>
@@ -12224,12 +12683,12 @@
         <v>27</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>31</v>
@@ -12238,7 +12697,7 @@
         <v>43</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>64</v>
@@ -12253,12 +12712,12 @@
         <v>27</v>
       </c>
       <c r="I232" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>31</v>
@@ -12267,7 +12726,7 @@
         <v>37</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>64</v>
@@ -12282,12 +12741,12 @@
         <v>27</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>31</v>
@@ -12296,7 +12755,7 @@
         <v>37</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>64</v>
@@ -12311,12 +12770,12 @@
         <v>27</v>
       </c>
       <c r="I234" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>31</v>
@@ -12325,7 +12784,7 @@
         <v>37</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>64</v>
@@ -12340,12 +12799,12 @@
         <v>27</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>31</v>
@@ -12369,12 +12828,12 @@
         <v>29</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>31</v>
@@ -12383,7 +12842,7 @@
         <v>37</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>34</v>
@@ -12398,12 +12857,12 @@
         <v>27</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B238" s="10" t="s">
         <v>31</v>
@@ -12412,7 +12871,7 @@
         <v>43</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E238" s="10" t="s">
         <v>64</v>
@@ -12432,7 +12891,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>31</v>
@@ -12461,7 +12920,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B240" s="10" t="s">
         <v>31</v>
@@ -12470,7 +12929,7 @@
         <v>11</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E240" s="10" t="s">
         <v>34</v>
@@ -12490,7 +12949,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>31</v>
@@ -12499,7 +12958,7 @@
         <v>32</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E241" s="10" t="s">
         <v>34</v>
@@ -12519,7 +12978,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>31</v>
@@ -12528,7 +12987,7 @@
         <v>37</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E242" s="10" t="s">
         <v>64</v>
@@ -12548,7 +13007,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>31</v>
@@ -12557,7 +13016,7 @@
         <v>37</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>34</v>
@@ -12577,7 +13036,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>31</v>
@@ -12606,7 +13065,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>31</v>
@@ -12615,7 +13074,7 @@
         <v>43</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E245" s="8" t="s">
         <v>34</v>
@@ -12635,7 +13094,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>31</v>
@@ -12664,7 +13123,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>31</v>
@@ -12693,7 +13152,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>31</v>
@@ -12702,7 +13161,7 @@
         <v>11</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>64</v>
@@ -12722,7 +13181,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>31</v>
@@ -12751,7 +13210,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>31</v>
@@ -12760,7 +13219,7 @@
         <v>43</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>34</v>
@@ -12780,7 +13239,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>31</v>
@@ -12789,7 +13248,7 @@
         <v>43</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E251" s="8" t="s">
         <v>34</v>
@@ -12809,7 +13268,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>31</v>
@@ -12818,7 +13277,7 @@
         <v>11</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>34</v>
@@ -12838,7 +13297,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>31</v>
@@ -12847,7 +13306,7 @@
         <v>37</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E253" s="8" t="s">
         <v>34</v>
@@ -12867,7 +13326,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>31</v>
@@ -12876,7 +13335,7 @@
         <v>43</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>64</v>
@@ -12896,7 +13355,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>31</v>
@@ -12905,7 +13364,7 @@
         <v>37</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E255" s="8" t="s">
         <v>64</v>
@@ -12925,7 +13384,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>31</v>
@@ -12934,7 +13393,7 @@
         <v>37</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>64</v>
@@ -12954,7 +13413,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>31</v>
@@ -12983,7 +13442,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>31</v>
@@ -12992,7 +13451,7 @@
         <v>37</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E258" s="8" t="s">
         <v>34</v>
@@ -13012,7 +13471,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>31</v>
@@ -13021,7 +13480,7 @@
         <v>37</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>34</v>
@@ -13037,6 +13496,3312 @@
       </c>
       <c r="I259" s="8" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F260" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H260" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I260" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F261" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G261" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H261" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I261" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F262" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G262" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I262" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I263" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F264" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G264" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I264" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F265" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I265" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E266" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F266" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G266" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H266" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I266" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G267" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H267" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I267" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F268" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G268" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H268" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I268" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F269" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G269" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I269" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F270" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G270" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I270" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I271" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F272" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G272" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I272" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F273" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I273" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F274" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I274" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F275" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G275" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H275" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I275" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F276" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I276" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F277" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H277" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I277" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E278" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F278" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I278" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F279" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G279" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I279" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F280" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G280" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H280" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I280" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F281" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I281" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E282" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F282" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G282" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H282" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I282" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F283" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G283" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H283" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I283" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E284" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F284" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G284" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H284" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I284" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E285" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F285" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G285" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H285" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I285" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F286" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H286" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I286" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F287" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H287" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I287" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F288" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H288" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I288" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F289" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H289" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I289" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F290" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H290" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I290" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F291" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H291" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I291" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F292" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G292" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H292" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I292" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F293" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G293" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H293" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I293" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F294" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G294" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H294" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I294" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F295" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G295" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H295" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I295" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E296" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F296" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G296" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H296" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I296" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F297" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G297" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H297" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I297" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F298" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G298" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H298" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I298" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F299" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H299" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I299" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E300" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F300" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G300" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H300" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I300" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F301" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G301" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H301" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I301" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F302" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H302" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I302" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F303" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G303" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H303" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I303" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F304" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H304" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I304" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F305" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G305" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H305" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I305" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F306" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H306" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I306" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D307" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I307" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D308" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="E308" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F308" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G308" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I308" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E309" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F309" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G309" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I309" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F310" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G310" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I310" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F311" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G311" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I311" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F312" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G312" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I312" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D313" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F313" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G313" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H313" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I313" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D314" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F314" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G314" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I314" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F315" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G315" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H315" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I315" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D316" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F316" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H316" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I316" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G317" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H317" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I317" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F318" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G318" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H318" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I318" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D319" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G319" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H319" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I319" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D320" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F320" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G320" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H320" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I320" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D321" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="E321" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F321" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G321" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H321" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I321" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E322" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F322" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G322" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I322" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E323" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G323" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I323" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D324" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E324" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F324" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G324" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H324" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I324" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D325" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E325" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F325" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G325" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I325" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D326" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E326" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F326" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G326" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I326" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A327" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D327" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E327" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F327" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G327" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I327" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A328" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D328" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="E328" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F328" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G328" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I328" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A329" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D329" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="E329" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F329" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H329" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I329" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A330" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D330" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E330" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F330" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G330" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H330" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I330" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A331" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="E331" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F331" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G331" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H331" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I331" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A332" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D332" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="E332" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F332" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G332" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H332" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I332" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A333" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E333" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F333" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G333" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H333" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I333" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A334" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D334" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E334" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F334" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G334" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I334" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A335" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D335" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="E335" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F335" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G335" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H335" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I335" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A336" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E336" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F336" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G336" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I336" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A337" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D337" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E337" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F337" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G337" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I337" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A338" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F338" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G338" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I338" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A339" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G339" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I339" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A340" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F340" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G340" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H340" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I340" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A341" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G341" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I341" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A342" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D342" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E342" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F342" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G342" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I342" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A343" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F343" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G343" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I343" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A344" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E344" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F344" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G344" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H344" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I344" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A345" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I345" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A346" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F346" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G346" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I346" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A347" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D347" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F347" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G347" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H347" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I347" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A348" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F348" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G348" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I348" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F349" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G349" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H349" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I349" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A350" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G350" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H350" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I350" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A351" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G351" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H351" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I351" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F352" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G352" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I352" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A353" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F353" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G353" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H353" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I353" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A354" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F354" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G354" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H354" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I354" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F355" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G355" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I355" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A356" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F356" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G356" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H356" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I356" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A357" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F357" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G357" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H357" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I357" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A358" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F358" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G358" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H358" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I358" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A359" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F359" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G359" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H359" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I359" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A360" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F360" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G360" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H360" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I360" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A361" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G361" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I361" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A362" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F362" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G362" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H362" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I362" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A363" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G363" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I363" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A364" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F364" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G364" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H364" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I364" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A365" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G365" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I365" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A366" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F366" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G366" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H366" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I366" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A367" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I367" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A368" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F368" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G368" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H368" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I368" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A369" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G369" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I369" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A370" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D370" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F370" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G370" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H370" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I370" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A371" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D371" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F371" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G371" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I371" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A372" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F372" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G372" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H372" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I372" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A373" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G373" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H373" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I373" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7B2B7-0977-4D8E-9E8A-18A0019C07DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC1A03D-1DF5-4B8A-981F-D555F6E7E857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{C2AB0517-8C77-45F6-8174-133D86F9B3AE}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="691">
   <si>
     <t>ناوچەی لێکۆڵینەوە</t>
   </si>
@@ -1927,6 +1927,210 @@
   </si>
   <si>
     <t>مارکێتی ماروان</t>
+  </si>
+  <si>
+    <t>uk market</t>
+  </si>
+  <si>
+    <t>Safra Hypermarket</t>
+  </si>
+  <si>
+    <t>Jazz Café</t>
+  </si>
+  <si>
+    <t>Roundabout Café</t>
+  </si>
+  <si>
+    <t>UK Center</t>
+  </si>
+  <si>
+    <t>شەربەری هادی</t>
+  </si>
+  <si>
+    <t>شەربەتفرۆش</t>
+  </si>
+  <si>
+    <t>ئاواتی تایە</t>
+  </si>
+  <si>
+    <t>تایەفرۆش</t>
+  </si>
+  <si>
+    <t>POILO</t>
+  </si>
+  <si>
+    <t>Ramada by Wyndham</t>
+  </si>
+  <si>
+    <t>Zewar Stationary</t>
+  </si>
+  <si>
+    <t>کەیوان</t>
+  </si>
+  <si>
+    <t>پەڕاوگەی کەمالی</t>
+  </si>
+  <si>
+    <t>City Star Bakery &amp; Pastry</t>
+  </si>
+  <si>
+    <t>سەمونخانە و شیرینی</t>
+  </si>
+  <si>
+    <t>Jibal Zone</t>
+  </si>
+  <si>
+    <t>بۆ پێداویستی مۆبایل</t>
+  </si>
+  <si>
+    <t>مینی ماڕکێتی لۆناڤالا</t>
+  </si>
+  <si>
+    <t>کۆمپانیای میوانی کوردستان</t>
+  </si>
+  <si>
+    <t>کۆمپانیا</t>
+  </si>
+  <si>
+    <t>Hotel Rotana</t>
+  </si>
+  <si>
+    <t>فرۆشگا</t>
+  </si>
+  <si>
+    <t>گەرماو</t>
+  </si>
+  <si>
+    <t>Smile Holiday</t>
+  </si>
+  <si>
+    <t>کۆمپانیای گەشت و گوزار</t>
+  </si>
+  <si>
+    <t>Mihrako Rest &amp; Cafe</t>
+  </si>
+  <si>
+    <t>شیرینی عەباس</t>
+  </si>
+  <si>
+    <t>بۆ تایە</t>
+  </si>
+  <si>
+    <t>فرۆشگەی ئەنەس</t>
+  </si>
+  <si>
+    <t>چەرەساتی مەلیک</t>
+  </si>
+  <si>
+    <t>کلاشی دیلمان</t>
+  </si>
+  <si>
+    <t>لینا هیوا</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>vibe beauty</t>
+  </si>
+  <si>
+    <t>لوکسۆر گرووپ</t>
+  </si>
+  <si>
+    <t>فرۆشگای تابلۆی هونەری</t>
+  </si>
+  <si>
+    <t>فرۆشگای کەلوپەل</t>
+  </si>
+  <si>
+    <t>hyper line</t>
+  </si>
+  <si>
+    <t>کۆمپانیای گەشتوگوزار</t>
+  </si>
+  <si>
+    <t>زەڕەنگەر</t>
+  </si>
+  <si>
+    <t>زەڕەنگەری سەرمەند</t>
+  </si>
+  <si>
+    <t>Talabat Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrefour </t>
+  </si>
+  <si>
+    <t>Haji rahim qassab</t>
+  </si>
+  <si>
+    <t>Freshi sirwan qasab</t>
+  </si>
+  <si>
+    <t>Gosht froshi lalo fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Penguin Stationary </t>
+  </si>
+  <si>
+    <t>Modex</t>
+  </si>
+  <si>
+    <t>فرۆشگای ئەلیکترۆنی</t>
+  </si>
+  <si>
+    <t>Vet Plus</t>
+  </si>
+  <si>
+    <t>فرۆشگای پێداویستی ئاژەڵان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Vet Clinic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.akam vet clinic </t>
+  </si>
+  <si>
+    <t>Sardam flower</t>
+  </si>
+  <si>
+    <t>گوڵ فرۆش</t>
+  </si>
+  <si>
+    <t>Zanko Brand</t>
+  </si>
+  <si>
+    <t>فرۆشگای چاویلکە</t>
+  </si>
+  <si>
+    <t>Karrada Group</t>
+  </si>
+  <si>
+    <t>فرۆشگای پێداویستی لەشجوانی</t>
+  </si>
+  <si>
+    <t>Yves Rocher</t>
+  </si>
+  <si>
+    <t>فرۆشگای جوانکاری ئافرەتان</t>
+  </si>
+  <si>
+    <t>Zanko Optical</t>
+  </si>
+  <si>
+    <t>چاویلکە فرۆش</t>
+  </si>
+  <si>
+    <t>Hazeem abood</t>
+  </si>
+  <si>
+    <t>Capsule Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miran Plus Pharmacy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sbay Pharmacy </t>
   </si>
 </sst>
 </file>
@@ -5417,8 +5621,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I373" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:I373" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:I426" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:I426" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I227">
     <sortCondition ref="D1:D227"/>
   </sortState>
@@ -5969,10 +6173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB0C81-FE65-4E5D-9356-7842E6FE9EF2}">
-  <dimension ref="A1:M373"/>
+  <dimension ref="A1:M426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C370" sqref="C370"/>
+    <sheetView tabSelected="1" topLeftCell="E410" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J424" sqref="J424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -16802,6 +17006,1543 @@
       </c>
       <c r="I373" s="8" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A374" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F374" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G374" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H374" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I374" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A375" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F375" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G375" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H375" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I375" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A376" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F376" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G376" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H376" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I376" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A377" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G377" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H377" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I377" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A378" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F378" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G378" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H378" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I378" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A379" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G379" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H379" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I379" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A380" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E380" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F380" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G380" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H380" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I380" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A381" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G381" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H381" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I381" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A382" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F382" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G382" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H382" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I382" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A383" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G383" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H383" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I383" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A384" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D384" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F384" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G384" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H384" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I384" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A385" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G385" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H385" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I385" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A386" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F386" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G386" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H386" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I386" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A387" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F387" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G387" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H387" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I387" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A388" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F388" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G388" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H388" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I388" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A389" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G389" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H389" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I389" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A390" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F390" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G390" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H390" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I390" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A391" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G391" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H391" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I391" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A392" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F392" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G392" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H392" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I392" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A393" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F393" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G393" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H393" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I393" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A394" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E394" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F394" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G394" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H394" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I394" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A395" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F395" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G395" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H395" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I395" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A396" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D396" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E396" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F396" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G396" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H396" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I396" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A397" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G397" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H397" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I397" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A398" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F398" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G398" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H398" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I398" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A399" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F399" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G399" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H399" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I399" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A400" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E400" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F400" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G400" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H400" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I400" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F401" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G401" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H401" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I401" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E402" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F402" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G402" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H402" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I402" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F403" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G403" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H403" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I403" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="E404" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F404" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G404" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H404" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I404" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F405" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G405" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H405" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I405" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A406" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E406" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F406" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G406" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H406" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I406" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A407" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D407" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F407" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G407" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H407" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I407" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A408" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="E408" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F408" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G408" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H408" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I408" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A409" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D409" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="E409" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F409" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G409" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H409" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I409" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A410" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D410" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E410" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F410" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G410" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H410" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I410" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A411" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D411" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E411" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F411" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G411" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H411" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I411" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A412" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D412" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E412" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F412" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G412" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H412" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I412" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A413" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D413" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="E413" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F413" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G413" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H413" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I413" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A414" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D414" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="E414" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F414" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G414" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H414" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I414" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A415" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D415" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="E415" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G415" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H415" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I415" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A416" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B416" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D416" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="E416" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F416" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G416" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H416" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I416" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A417" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B417" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D417" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="E417" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F417" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G417" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H417" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I417" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A418" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D418" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E418" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F418" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G418" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H418" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I418" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A419" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D419" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="E419" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F419" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G419" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H419" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I419" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A420" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D420" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="E420" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F420" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G420" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H420" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I420" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A421" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D421" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="E421" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F421" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G421" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H421" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I421" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A422" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E422" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F422" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G422" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H422" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I422" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A423" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D423" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="E423" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G423" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H423" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I423" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A424" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D424" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E424" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F424" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G424" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H424" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I424" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A425" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D425" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E425" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G425" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H425" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I425" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A426" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D426" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E426" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F426" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G426" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H426" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I426" s="10" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aradl\Documents\GitHub\data-to-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A9A00-96F8-40B5-ACA5-59B19B910819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48C15B-4EA3-4560-B890-3C980005A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{C2AB0517-8C77-45F6-8174-133D86F9B3AE}"/>
   </bookViews>
@@ -1018,9 +1018,6 @@
     <t>دینا ڕامی</t>
   </si>
   <si>
-    <t>هاونا عبدالواحید</t>
-  </si>
-  <si>
     <t>مینا ئەحمەد</t>
   </si>
   <si>
@@ -2120,6 +2117,9 @@
   </si>
   <si>
     <t>سلێمانی</t>
+  </si>
+  <si>
+    <t>هاونا عبدالرزاق</t>
   </si>
 </sst>
 </file>
@@ -2201,6 +2201,60 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{557E83F1-ED94-4D8E-8630-C918AB429DE1}"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2385,60 +2439,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2492,15 +2492,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{535B594A-705A-47EE-828A-180DCD641F71}" name="Records" displayName="Records" ref="A1:I3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I3" xr:uid="{535B594A-705A-47EE-828A-180DCD641F71}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6DDBDD14-633F-4ABA-9C76-65525EBC76D8}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{66AF660A-A14F-4045-B8CB-D76792F21429}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{83CC10A2-BAF8-4862-8643-B57D68F3E76E}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{B4812699-98AF-4B65-8C00-47F579AAA5C5}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{AF340D88-7668-4ECB-8B3B-3835501FD903}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{A6A791CE-3429-4B17-9898-B4D0E1551587}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{C811D6B1-52D5-4059-8C0B-D302CB5D2E05}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{B4600758-5D6A-4315-9602-B64AD3186DFF}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{D249D5C2-3A0D-4F27-83F4-A16DBB451849}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{6DDBDD14-633F-4ABA-9C76-65525EBC76D8}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{66AF660A-A14F-4045-B8CB-D76792F21429}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{83CC10A2-BAF8-4862-8643-B57D68F3E76E}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B4812699-98AF-4B65-8C00-47F579AAA5C5}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{AF340D88-7668-4ECB-8B3B-3835501FD903}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{A6A791CE-3429-4B17-9898-B4D0E1551587}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C811D6B1-52D5-4059-8C0B-D302CB5D2E05}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B4600758-5D6A-4315-9602-B64AD3186DFF}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{D249D5C2-3A0D-4F27-83F4-A16DBB451849}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2510,37 +2510,37 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56CF5556-60E9-450A-96EA-2A93F7ACBA98}" name="Table1_1" displayName="Table1_1" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I2" xr:uid="{56CF5556-60E9-450A-96EA-2A93F7ACBA98}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5457E465-1523-4F7A-8EE7-C088FE127420}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{ADF28F8D-AC86-4A82-B5FA-F61AC06AAE20}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D3F2FD61-936C-462A-B719-A6516FF06D09}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{39B60345-E43D-4C21-91CA-5E1F9E8A4771}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{7690E405-D68D-4E56-87CF-2DF553661D0F}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{23EBF398-36D3-416A-AE10-6418013A5C44}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{6A74790B-F5E8-411D-A20E-15B61B1218C4}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{76872C0E-1E31-4D1C-A141-533AE9CEA814}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{C486E8D0-D0AD-4CCB-BCC6-2A8AD3690FE4}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5457E465-1523-4F7A-8EE7-C088FE127420}" uniqueName="1" name="ناو" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{ADF28F8D-AC86-4A82-B5FA-F61AC06AAE20}" uniqueName="2" name="ناوچەی لێکۆڵینەوە" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D3F2FD61-936C-462A-B719-A6516FF06D09}" uniqueName="3" name="جۆری تابلۆ" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{39B60345-E43D-4C21-91CA-5E1F9E8A4771}" uniqueName="4" name="جۆری بازرگانی" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7690E405-D68D-4E56-87CF-2DF553661D0F}" uniqueName="5" name="شوێنی بازرگانی" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{23EBF398-36D3-416A-AE10-6418013A5C44}" uniqueName="6" name="قەبارەی تابلۆ" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6A74790B-F5E8-411D-A20E-15B61B1218C4}" uniqueName="7" name="شوێنی تابلۆ" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{76872C0E-1E31-4D1C-A141-533AE9CEA814}" uniqueName="8" name="ئاستی نرخ" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C486E8D0-D0AD-4CCB-BCC6-2A8AD3690FE4}" uniqueName="9" name="Data Collector" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:J426" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}" name="Table1" displayName="Table1" ref="A1:J426" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:J426" xr:uid="{48AA9856-D9B9-4A1B-82A9-09E2D746EC53}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I426">
     <sortCondition ref="I1:I426"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{01D59742-640B-4956-AD2D-CDDEB6C2F71F}" name="ناو" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{0DE53E67-991B-4473-9CAA-ADC3B3F66999}" name="ناوچەی لێکۆڵینەوە" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{68B3ED75-A20F-4E5B-BB72-61BC76C692E3}" name="جۆری تابلۆ" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{AD49EE1D-B3C7-4675-992A-D5649F6F9AAB}" name="جۆری بازرگانی" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{9F32E4D9-E1A7-4924-87B7-6B6270F38B7E}" name="شوێنی بازرگانی" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{CC62B2BE-4E45-4075-8CF7-405F33A536A9}" name="قەبارەی تابلۆ" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{901BF7DC-5F97-4BDD-98E0-C457561FDA21}" name="شوێنی تابلۆ" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{13A43650-EE8B-4D11-99EE-6C0545116F5E}" name="ئاستی نرخ" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{A7F7BCA0-3E68-4671-A567-C5F908070922}" name="کۆکەرەوەی زانیاری" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{9DA52487-586B-41BE-A36E-78FA560EE5F6}" name="شار" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{01D59742-640B-4956-AD2D-CDDEB6C2F71F}" name="ناو" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{0DE53E67-991B-4473-9CAA-ADC3B3F66999}" name="ناوچەی لێکۆڵینەوە" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{68B3ED75-A20F-4E5B-BB72-61BC76C692E3}" name="جۆری تابلۆ" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{AD49EE1D-B3C7-4675-992A-D5649F6F9AAB}" name="جۆری بازرگانی" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{9F32E4D9-E1A7-4924-87B7-6B6270F38B7E}" name="شوێنی بازرگانی" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{CC62B2BE-4E45-4075-8CF7-405F33A536A9}" name="قەبارەی تابلۆ" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{901BF7DC-5F97-4BDD-98E0-C457561FDA21}" name="شوێنی تابلۆ" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{13A43650-EE8B-4D11-99EE-6C0545116F5E}" name="ئاستی نرخ" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{A7F7BCA0-3E68-4671-A567-C5F908070922}" name="کۆکەرەوەی زانیاری" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{9DA52487-586B-41BE-A36E-78FA560EE5F6}" name="شار" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3080,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB0C81-FE65-4E5D-9356-7842E6FE9EF2}">
   <dimension ref="A1:N426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D405" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H421" sqref="H421"/>
+    <sheetView tabSelected="1" topLeftCell="D403" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J425" sqref="J425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.25" x14ac:dyDescent="0.2"/>
@@ -3119,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -3153,10 +3153,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,10 +3185,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,10 +3217,10 @@
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L4" s="4"/>
     </row>
@@ -3250,10 +3250,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -3283,10 +3283,10 @@
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3315,10 +3315,10 @@
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3347,15 +3347,15 @@
         <v>25</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -3379,10 +3379,10 @@
         <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3411,10 +3411,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3443,10 +3443,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3475,10 +3475,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3507,10 +3507,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3539,10 +3539,10 @@
         <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3571,10 +3571,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3603,10 +3603,10 @@
         <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3635,10 +3635,10 @@
         <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -3667,10 +3667,10 @@
         <v>23</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3699,10 +3699,10 @@
         <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -3731,15 +3731,15 @@
         <v>16</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>27</v>
@@ -3748,7 +3748,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>60</v>
@@ -3763,15 +3763,15 @@
         <v>23</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -3780,7 +3780,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>60</v>
@@ -3795,15 +3795,15 @@
         <v>16</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
@@ -3812,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>60</v>
@@ -3827,15 +3827,15 @@
         <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
@@ -3844,7 +3844,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>60</v>
@@ -3859,15 +3859,15 @@
         <v>23</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
@@ -3876,7 +3876,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>30</v>
@@ -3891,15 +3891,15 @@
         <v>25</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
@@ -3923,15 +3923,15 @@
         <v>25</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -3940,7 +3940,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>60</v>
@@ -3955,15 +3955,15 @@
         <v>23</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
@@ -3987,15 +3987,15 @@
         <v>25</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -4004,7 +4004,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>60</v>
@@ -4019,15 +4019,15 @@
         <v>25</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
@@ -4036,7 +4036,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>60</v>
@@ -4051,15 +4051,15 @@
         <v>23</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>27</v>
@@ -4083,15 +4083,15 @@
         <v>23</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>27</v>
@@ -4100,7 +4100,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>60</v>
@@ -4115,15 +4115,15 @@
         <v>23</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>27</v>
@@ -4147,15 +4147,15 @@
         <v>25</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>27</v>
@@ -4164,7 +4164,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>60</v>
@@ -4179,15 +4179,15 @@
         <v>25</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>27</v>
@@ -4196,7 +4196,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>60</v>
@@ -4211,15 +4211,15 @@
         <v>25</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
@@ -4243,15 +4243,15 @@
         <v>23</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -4275,15 +4275,15 @@
         <v>23</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>27</v>
@@ -4292,7 +4292,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>60</v>
@@ -4307,15 +4307,15 @@
         <v>23</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>27</v>
@@ -4324,7 +4324,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>60</v>
@@ -4339,15 +4339,15 @@
         <v>23</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>27</v>
@@ -4371,15 +4371,15 @@
         <v>23</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>27</v>
@@ -4388,7 +4388,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>60</v>
@@ -4403,15 +4403,15 @@
         <v>25</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>27</v>
@@ -4420,7 +4420,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>60</v>
@@ -4435,15 +4435,15 @@
         <v>23</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>27</v>
@@ -4467,15 +4467,15 @@
         <v>23</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>27</v>
@@ -4484,7 +4484,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>30</v>
@@ -4499,15 +4499,15 @@
         <v>25</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>27</v>
@@ -4516,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>30</v>
@@ -4531,15 +4531,15 @@
         <v>23</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>27</v>
@@ -4548,7 +4548,7 @@
         <v>28</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>30</v>
@@ -4563,15 +4563,15 @@
         <v>25</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>27</v>
@@ -4595,15 +4595,15 @@
         <v>23</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>27</v>
@@ -4612,7 +4612,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>30</v>
@@ -4627,15 +4627,15 @@
         <v>23</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>27</v>
@@ -4644,7 +4644,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>60</v>
@@ -4659,15 +4659,15 @@
         <v>23</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>7</v>
@@ -4691,15 +4691,15 @@
         <v>25</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>27</v>
@@ -4708,7 +4708,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>30</v>
@@ -4723,15 +4723,15 @@
         <v>25</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>27</v>
@@ -4755,15 +4755,15 @@
         <v>23</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>27</v>
@@ -4787,15 +4787,15 @@
         <v>23</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>27</v>
@@ -4804,7 +4804,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>30</v>
@@ -4819,15 +4819,15 @@
         <v>23</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>27</v>
@@ -4851,15 +4851,15 @@
         <v>25</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>27</v>
@@ -4868,7 +4868,7 @@
         <v>33</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>30</v>
@@ -4883,24 +4883,24 @@
         <v>23</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>542</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
@@ -4915,15 +4915,15 @@
         <v>16</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>27</v>
@@ -4932,7 +4932,7 @@
         <v>39</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>60</v>
@@ -4947,15 +4947,15 @@
         <v>25</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>27</v>
@@ -4964,7 +4964,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>30</v>
@@ -4979,10 +4979,10 @@
         <v>25</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -4996,7 +4996,7 @@
         <v>39</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>30</v>
@@ -5014,7 +5014,7 @@
         <v>319</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>30</v>
@@ -5046,7 +5046,7 @@
         <v>319</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>319</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -5092,7 +5092,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>30</v>
@@ -5110,7 +5110,7 @@
         <v>319</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -5124,7 +5124,7 @@
         <v>39</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>30</v>
@@ -5142,7 +5142,7 @@
         <v>319</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -5174,7 +5174,7 @@
         <v>319</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -5188,7 +5188,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>30</v>
@@ -5206,7 +5206,7 @@
         <v>319</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -5238,7 +5238,7 @@
         <v>319</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
         <v>319</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5302,12 +5302,12 @@
         <v>319</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>7</v>
@@ -5334,7 +5334,7 @@
         <v>319</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -5366,7 +5366,7 @@
         <v>319</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -5398,7 +5398,7 @@
         <v>319</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -5412,7 +5412,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>30</v>
@@ -5430,7 +5430,7 @@
         <v>319</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
         <v>319</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -5494,12 +5494,12 @@
         <v>319</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>27</v>
@@ -5508,7 +5508,7 @@
         <v>11</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>30</v>
@@ -5526,7 +5526,7 @@
         <v>319</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -5540,7 +5540,7 @@
         <v>33</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>60</v>
@@ -5558,7 +5558,7 @@
         <v>319</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -5590,7 +5590,7 @@
         <v>319</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -5604,7 +5604,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>30</v>
@@ -5622,7 +5622,7 @@
         <v>319</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -5636,7 +5636,7 @@
         <v>28</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>30</v>
@@ -5654,7 +5654,7 @@
         <v>319</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -5668,7 +5668,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>30</v>
@@ -5686,7 +5686,7 @@
         <v>319</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -5700,7 +5700,7 @@
         <v>39</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>30</v>
@@ -5718,12 +5718,12 @@
         <v>319</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
@@ -5750,12 +5750,12 @@
         <v>319</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
@@ -5782,12 +5782,12 @@
         <v>319</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
@@ -5796,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>30</v>
@@ -5814,12 +5814,12 @@
         <v>319</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
@@ -5828,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>30</v>
@@ -5846,12 +5846,12 @@
         <v>319</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>27</v>
@@ -5878,12 +5878,12 @@
         <v>319</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
@@ -5892,7 +5892,7 @@
         <v>39</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>30</v>
@@ -5910,12 +5910,12 @@
         <v>319</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>27</v>
@@ -5942,12 +5942,12 @@
         <v>319</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>27</v>
@@ -5974,12 +5974,12 @@
         <v>319</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>27</v>
@@ -6006,12 +6006,12 @@
         <v>319</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>27</v>
@@ -6038,12 +6038,12 @@
         <v>319</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>27</v>
@@ -6070,12 +6070,12 @@
         <v>319</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>27</v>
@@ -6102,12 +6102,12 @@
         <v>319</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>27</v>
@@ -6134,12 +6134,12 @@
         <v>319</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>27</v>
@@ -6166,7 +6166,7 @@
         <v>319</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
         <v>320</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -6230,7 +6230,7 @@
         <v>320</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -6262,7 +6262,7 @@
         <v>320</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -6294,7 +6294,7 @@
         <v>320</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -6308,7 +6308,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>10</v>
@@ -6326,7 +6326,7 @@
         <v>320</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -6340,7 +6340,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>10</v>
@@ -6358,7 +6358,7 @@
         <v>320</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -6390,7 +6390,7 @@
         <v>320</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>320</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -6436,7 +6436,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>10</v>
@@ -6454,7 +6454,7 @@
         <v>320</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -6486,7 +6486,7 @@
         <v>320</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -6500,7 +6500,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>10</v>
@@ -6518,7 +6518,7 @@
         <v>320</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -6532,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>30</v>
@@ -6547,10 +6547,10 @@
         <v>16</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -6579,10 +6579,10 @@
         <v>25</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -6611,10 +6611,10 @@
         <v>25</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -6643,10 +6643,10 @@
         <v>25</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -6675,10 +6675,10 @@
         <v>16</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -6707,10 +6707,10 @@
         <v>16</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -6739,10 +6739,10 @@
         <v>16</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -6756,7 +6756,7 @@
         <v>39</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>30</v>
@@ -6771,10 +6771,10 @@
         <v>25</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -6803,10 +6803,10 @@
         <v>16</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
         <v>39</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>30</v>
@@ -6835,10 +6835,10 @@
         <v>25</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -6852,7 +6852,7 @@
         <v>39</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>30</v>
@@ -6867,10 +6867,10 @@
         <v>25</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>39</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>30</v>
@@ -6899,10 +6899,10 @@
         <v>25</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -6931,10 +6931,10 @@
         <v>16</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -6948,7 +6948,7 @@
         <v>33</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>30</v>
@@ -6963,15 +6963,15 @@
         <v>25</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>27</v>
@@ -6980,7 +6980,7 @@
         <v>33</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>30</v>
@@ -6995,15 +6995,15 @@
         <v>23</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>27</v>
@@ -7027,15 +7027,15 @@
         <v>25</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>27</v>
@@ -7044,7 +7044,7 @@
         <v>11</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>30</v>
@@ -7059,15 +7059,15 @@
         <v>16</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>27</v>
@@ -7076,7 +7076,7 @@
         <v>33</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>30</v>
@@ -7091,15 +7091,15 @@
         <v>25</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>27</v>
@@ -7108,7 +7108,7 @@
         <v>33</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>30</v>
@@ -7123,15 +7123,15 @@
         <v>25</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>27</v>
@@ -7140,7 +7140,7 @@
         <v>39</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>30</v>
@@ -7155,15 +7155,15 @@
         <v>16</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>27</v>
@@ -7172,7 +7172,7 @@
         <v>33</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>30</v>
@@ -7187,15 +7187,15 @@
         <v>16</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>30</v>
@@ -7219,10 +7219,10 @@
         <v>16</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -7236,7 +7236,7 @@
         <v>11</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>30</v>
@@ -7251,10 +7251,10 @@
         <v>25</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -7268,7 +7268,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>30</v>
@@ -7283,10 +7283,10 @@
         <v>25</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -7315,10 +7315,10 @@
         <v>25</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -7332,7 +7332,7 @@
         <v>11</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>30</v>
@@ -7347,10 +7347,10 @@
         <v>25</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -7364,7 +7364,7 @@
         <v>11</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>30</v>
@@ -7379,10 +7379,10 @@
         <v>16</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -7396,7 +7396,7 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>30</v>
@@ -7411,10 +7411,10 @@
         <v>16</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>30</v>
@@ -7443,10 +7443,10 @@
         <v>16</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -7460,7 +7460,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>10</v>
@@ -7475,10 +7475,10 @@
         <v>23</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -7492,7 +7492,7 @@
         <v>11</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>10</v>
@@ -7507,10 +7507,10 @@
         <v>16</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -7524,7 +7524,7 @@
         <v>39</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>30</v>
@@ -7539,10 +7539,10 @@
         <v>16</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -7556,7 +7556,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>10</v>
@@ -7571,10 +7571,10 @@
         <v>16</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -7603,10 +7603,10 @@
         <v>23</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -7635,10 +7635,10 @@
         <v>16</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -7667,10 +7667,10 @@
         <v>25</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -7699,10 +7699,10 @@
         <v>16</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -7731,10 +7731,10 @@
         <v>25</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -7763,10 +7763,10 @@
         <v>25</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -7795,10 +7795,10 @@
         <v>25</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -7827,15 +7827,15 @@
         <v>25</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>7</v>
@@ -7859,10 +7859,10 @@
         <v>16</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -7891,10 +7891,10 @@
         <v>25</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -7923,10 +7923,10 @@
         <v>25</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -7940,7 +7940,7 @@
         <v>11</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>30</v>
@@ -7955,10 +7955,10 @@
         <v>16</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -7987,10 +7987,10 @@
         <v>25</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -8019,10 +8019,10 @@
         <v>16</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -8036,7 +8036,7 @@
         <v>39</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>30</v>
@@ -8051,10 +8051,10 @@
         <v>25</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -8068,7 +8068,7 @@
         <v>11</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>30</v>
@@ -8083,10 +8083,10 @@
         <v>16</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -8100,7 +8100,7 @@
         <v>11</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>30</v>
@@ -8115,10 +8115,10 @@
         <v>16</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -8132,7 +8132,7 @@
         <v>11</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>30</v>
@@ -8147,10 +8147,10 @@
         <v>25</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -8164,7 +8164,7 @@
         <v>39</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>30</v>
@@ -8179,10 +8179,10 @@
         <v>25</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -8196,7 +8196,7 @@
         <v>11</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>30</v>
@@ -8211,10 +8211,10 @@
         <v>25</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -8243,10 +8243,10 @@
         <v>25</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -8275,10 +8275,10 @@
         <v>16</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -8307,10 +8307,10 @@
         <v>25</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -8339,10 +8339,10 @@
         <v>25</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -8371,10 +8371,10 @@
         <v>16</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -8403,10 +8403,10 @@
         <v>25</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -8435,10 +8435,10 @@
         <v>25</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -8452,7 +8452,7 @@
         <v>39</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>30</v>
@@ -8467,10 +8467,10 @@
         <v>16</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>11</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>10</v>
@@ -8499,10 +8499,10 @@
         <v>25</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -8516,7 +8516,7 @@
         <v>11</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>10</v>
@@ -8531,10 +8531,10 @@
         <v>16</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -8548,7 +8548,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>10</v>
@@ -8563,10 +8563,10 @@
         <v>16</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -8595,10 +8595,10 @@
         <v>16</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -8612,7 +8612,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>10</v>
@@ -8627,10 +8627,10 @@
         <v>16</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -8644,7 +8644,7 @@
         <v>11</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>10</v>
@@ -8659,10 +8659,10 @@
         <v>16</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -8676,7 +8676,7 @@
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>10</v>
@@ -8691,10 +8691,10 @@
         <v>25</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -8708,7 +8708,7 @@
         <v>11</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>10</v>
@@ -8723,10 +8723,10 @@
         <v>16</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -8740,7 +8740,7 @@
         <v>39</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>10</v>
@@ -8755,10 +8755,10 @@
         <v>16</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -8772,7 +8772,7 @@
         <v>11</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>30</v>
@@ -8787,10 +8787,10 @@
         <v>25</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -8804,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>30</v>
@@ -8819,10 +8819,10 @@
         <v>23</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -8836,7 +8836,7 @@
         <v>11</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>10</v>
@@ -8851,10 +8851,10 @@
         <v>16</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -8868,7 +8868,7 @@
         <v>11</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>30</v>
@@ -8883,10 +8883,10 @@
         <v>16</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -8900,7 +8900,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>10</v>
@@ -8915,10 +8915,10 @@
         <v>16</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -8932,7 +8932,7 @@
         <v>39</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>30</v>
@@ -8947,10 +8947,10 @@
         <v>25</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -8964,7 +8964,7 @@
         <v>11</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>10</v>
@@ -8979,10 +8979,10 @@
         <v>16</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -9011,10 +9011,10 @@
         <v>16</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -9043,10 +9043,10 @@
         <v>16</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -9075,10 +9075,10 @@
         <v>16</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -9107,10 +9107,10 @@
         <v>16</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -9139,10 +9139,10 @@
         <v>16</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -9171,15 +9171,15 @@
         <v>25</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>27</v>
@@ -9188,7 +9188,7 @@
         <v>11</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>10</v>
@@ -9203,10 +9203,10 @@
         <v>16</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -9235,10 +9235,10 @@
         <v>16</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -9267,10 +9267,10 @@
         <v>16</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -9299,10 +9299,10 @@
         <v>16</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -9331,10 +9331,10 @@
         <v>16</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -9348,7 +9348,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
@@ -9363,10 +9363,10 @@
         <v>25</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
@@ -9395,10 +9395,10 @@
         <v>25</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -9427,10 +9427,10 @@
         <v>23</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -9444,7 +9444,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>10</v>
@@ -9459,10 +9459,10 @@
         <v>16</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -9476,7 +9476,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>30</v>
@@ -9491,10 +9491,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -9508,7 +9508,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>30</v>
@@ -9523,10 +9523,10 @@
         <v>16</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -9540,7 +9540,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>10</v>
@@ -9555,10 +9555,10 @@
         <v>16</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -9572,7 +9572,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>30</v>
@@ -9587,10 +9587,10 @@
         <v>16</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -9619,10 +9619,10 @@
         <v>25</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -9651,10 +9651,10 @@
         <v>23</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -9683,10 +9683,10 @@
         <v>25</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -9715,10 +9715,10 @@
         <v>25</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
@@ -9732,7 +9732,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>30</v>
@@ -9747,10 +9747,10 @@
         <v>25</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -9764,7 +9764,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>10</v>
@@ -9779,10 +9779,10 @@
         <v>16</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
@@ -9796,7 +9796,7 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>10</v>
@@ -9811,10 +9811,10 @@
         <v>16</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -9843,10 +9843,10 @@
         <v>25</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -9860,7 +9860,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>10</v>
@@ -9875,10 +9875,10 @@
         <v>16</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -9892,7 +9892,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>10</v>
@@ -9907,10 +9907,10 @@
         <v>16</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -9924,7 +9924,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>30</v>
@@ -9939,10 +9939,10 @@
         <v>25</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -9956,7 +9956,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>10</v>
@@ -9971,10 +9971,10 @@
         <v>25</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
@@ -9988,7 +9988,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>30</v>
@@ -10003,10 +10003,10 @@
         <v>16</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
@@ -10035,10 +10035,10 @@
         <v>25</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -10052,7 +10052,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>30</v>
@@ -10067,10 +10067,10 @@
         <v>25</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -10084,7 +10084,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>10</v>
@@ -10099,10 +10099,10 @@
         <v>16</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
@@ -10116,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>10</v>
@@ -10131,10 +10131,10 @@
         <v>16</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
@@ -10148,7 +10148,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>10</v>
@@ -10163,15 +10163,15 @@
         <v>25</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>27</v>
@@ -10180,7 +10180,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>10</v>
@@ -10195,15 +10195,15 @@
         <v>16</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>27</v>
@@ -10227,15 +10227,15 @@
         <v>25</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>27</v>
@@ -10244,7 +10244,7 @@
         <v>33</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>30</v>
@@ -10259,15 +10259,15 @@
         <v>25</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>27</v>
@@ -10276,7 +10276,7 @@
         <v>33</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>60</v>
@@ -10291,15 +10291,15 @@
         <v>23</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>27</v>
@@ -10323,15 +10323,15 @@
         <v>23</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>27</v>
@@ -10340,7 +10340,7 @@
         <v>39</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>60</v>
@@ -10355,15 +10355,15 @@
         <v>23</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>27</v>
@@ -10372,7 +10372,7 @@
         <v>33</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>60</v>
@@ -10387,15 +10387,15 @@
         <v>23</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>27</v>
@@ -10404,7 +10404,7 @@
         <v>33</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>60</v>
@@ -10419,15 +10419,15 @@
         <v>23</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>27</v>
@@ -10436,7 +10436,7 @@
         <v>33</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>60</v>
@@ -10451,15 +10451,15 @@
         <v>23</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>27</v>
@@ -10483,15 +10483,15 @@
         <v>25</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>27</v>
@@ -10500,7 +10500,7 @@
         <v>33</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>30</v>
@@ -10515,15 +10515,15 @@
         <v>23</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>27</v>
@@ -10547,25 +10547,25 @@
         <v>16</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="E234" s="3" t="s">
         <v>30</v>
       </c>
@@ -10579,25 +10579,25 @@
         <v>25</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="E235" s="3" t="s">
         <v>30</v>
       </c>
@@ -10611,15 +10611,15 @@
         <v>25</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>7</v>
@@ -10628,7 +10628,7 @@
         <v>11</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>10</v>
@@ -10643,25 +10643,25 @@
         <v>16</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E237" s="3" t="s">
         <v>30</v>
       </c>
@@ -10675,15 +10675,15 @@
         <v>25</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>27</v>
@@ -10692,7 +10692,7 @@
         <v>39</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>30</v>
@@ -10707,15 +10707,15 @@
         <v>25</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>27</v>
@@ -10724,7 +10724,7 @@
         <v>39</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>30</v>
@@ -10739,15 +10739,15 @@
         <v>25</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>7</v>
@@ -10756,7 +10756,7 @@
         <v>33</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>10</v>
@@ -10771,15 +10771,15 @@
         <v>16</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>27</v>
@@ -10803,25 +10803,25 @@
         <v>25</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="E242" s="3" t="s">
         <v>30</v>
       </c>
@@ -10835,15 +10835,15 @@
         <v>25</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>27</v>
@@ -10852,7 +10852,7 @@
         <v>39</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>30</v>
@@ -10867,15 +10867,15 @@
         <v>25</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>7</v>
@@ -10899,15 +10899,15 @@
         <v>16</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>27</v>
@@ -10931,15 +10931,15 @@
         <v>23</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>27</v>
@@ -10963,15 +10963,15 @@
         <v>25</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>27</v>
@@ -10995,25 +10995,25 @@
         <v>25</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="E248" s="3" t="s">
         <v>30</v>
       </c>
@@ -11027,24 +11027,24 @@
         <v>25</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>30</v>
@@ -11059,24 +11059,24 @@
         <v>16</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>30</v>
@@ -11091,15 +11091,15 @@
         <v>23</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>27</v>
@@ -11123,24 +11123,24 @@
         <v>16</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>30</v>
@@ -11155,15 +11155,15 @@
         <v>25</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>27</v>
@@ -11172,7 +11172,7 @@
         <v>11</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>30</v>
@@ -11187,15 +11187,15 @@
         <v>25</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>27</v>
@@ -11219,15 +11219,15 @@
         <v>25</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>27</v>
@@ -11236,7 +11236,7 @@
         <v>11</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>30</v>
@@ -11251,15 +11251,15 @@
         <v>25</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>27</v>
@@ -11283,15 +11283,15 @@
         <v>23</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>27</v>
@@ -11315,15 +11315,15 @@
         <v>23</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>27</v>
@@ -11347,15 +11347,15 @@
         <v>25</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>27</v>
@@ -11364,7 +11364,7 @@
         <v>33</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>30</v>
@@ -11379,15 +11379,15 @@
         <v>25</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>7</v>
@@ -11411,15 +11411,15 @@
         <v>16</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>27</v>
@@ -11443,15 +11443,15 @@
         <v>16</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>27</v>
@@ -11475,15 +11475,15 @@
         <v>16</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>27</v>
@@ -11507,15 +11507,15 @@
         <v>25</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>27</v>
@@ -11524,7 +11524,7 @@
         <v>39</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>30</v>
@@ -11539,15 +11539,15 @@
         <v>25</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>27</v>
@@ -11556,7 +11556,7 @@
         <v>39</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>30</v>
@@ -11571,15 +11571,15 @@
         <v>25</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>27</v>
@@ -11588,7 +11588,7 @@
         <v>39</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>30</v>
@@ -11603,15 +11603,15 @@
         <v>25</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>27</v>
@@ -11620,7 +11620,7 @@
         <v>39</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>30</v>
@@ -11635,15 +11635,15 @@
         <v>25</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>7</v>
@@ -11667,15 +11667,15 @@
         <v>25</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>27</v>
@@ -11699,15 +11699,15 @@
         <v>16</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>27</v>
@@ -11731,25 +11731,25 @@
         <v>16</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="E271" s="1" t="s">
         <v>30</v>
       </c>
@@ -11763,15 +11763,15 @@
         <v>25</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>27</v>
@@ -11780,7 +11780,7 @@
         <v>33</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>30</v>
@@ -11795,15 +11795,15 @@
         <v>25</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>27</v>
@@ -11812,7 +11812,7 @@
         <v>39</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>30</v>
@@ -11827,15 +11827,15 @@
         <v>16</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>27</v>
@@ -11844,7 +11844,7 @@
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>30</v>
@@ -11859,24 +11859,24 @@
         <v>25</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>30</v>
@@ -11891,24 +11891,24 @@
         <v>16</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>30</v>
@@ -11923,15 +11923,15 @@
         <v>23</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>27</v>
@@ -11955,15 +11955,15 @@
         <v>25</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>27</v>
@@ -11987,15 +11987,15 @@
         <v>16</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>27</v>
@@ -12019,15 +12019,15 @@
         <v>16</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>27</v>
@@ -12051,15 +12051,15 @@
         <v>16</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>27</v>
@@ -12068,7 +12068,7 @@
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>30</v>
@@ -12083,15 +12083,15 @@
         <v>16</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>27</v>
@@ -12100,7 +12100,7 @@
         <v>33</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>30</v>
@@ -12115,15 +12115,15 @@
         <v>25</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>27</v>
@@ -12132,7 +12132,7 @@
         <v>11</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>30</v>
@@ -12147,15 +12147,15 @@
         <v>25</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>27</v>
@@ -12164,7 +12164,7 @@
         <v>11</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>30</v>
@@ -12179,15 +12179,15 @@
         <v>25</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>27</v>
@@ -12196,7 +12196,7 @@
         <v>39</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>30</v>
@@ -12211,15 +12211,15 @@
         <v>16</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>27</v>
@@ -12228,7 +12228,7 @@
         <v>39</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>30</v>
@@ -12243,15 +12243,15 @@
         <v>16</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>27</v>
@@ -12260,7 +12260,7 @@
         <v>39</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>30</v>
@@ -12275,15 +12275,15 @@
         <v>25</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>27</v>
@@ -12292,7 +12292,7 @@
         <v>11</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>30</v>
@@ -12307,25 +12307,25 @@
         <v>25</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B289" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>667</v>
-      </c>
       <c r="E289" s="3" t="s">
         <v>30</v>
       </c>
@@ -12339,25 +12339,25 @@
         <v>25</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B290" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="E290" s="3" t="s">
         <v>30</v>
       </c>
@@ -12371,15 +12371,15 @@
         <v>25</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>27</v>
@@ -12388,7 +12388,7 @@
         <v>11</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>30</v>
@@ -12403,15 +12403,15 @@
         <v>25</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>27</v>
@@ -12420,7 +12420,7 @@
         <v>11</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>30</v>
@@ -12435,25 +12435,25 @@
         <v>25</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="E293" s="3" t="s">
         <v>30</v>
       </c>
@@ -12467,25 +12467,25 @@
         <v>25</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="E294" s="3" t="s">
         <v>30</v>
       </c>
@@ -12499,24 +12499,24 @@
         <v>25</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>30</v>
@@ -12531,24 +12531,24 @@
         <v>16</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>30</v>
@@ -12563,25 +12563,25 @@
         <v>25</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B297" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>681</v>
-      </c>
       <c r="E297" s="3" t="s">
         <v>30</v>
       </c>
@@ -12595,15 +12595,15 @@
         <v>25</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>27</v>
@@ -12612,7 +12612,7 @@
         <v>11</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>30</v>
@@ -12627,15 +12627,15 @@
         <v>25</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>27</v>
@@ -12659,15 +12659,15 @@
         <v>25</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>27</v>
@@ -12691,15 +12691,15 @@
         <v>25</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>27</v>
@@ -12723,15 +12723,15 @@
         <v>25</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>7</v>
@@ -12740,7 +12740,7 @@
         <v>28</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>10</v>
@@ -12755,10 +12755,10 @@
         <v>16</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -12772,7 +12772,7 @@
         <v>33</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>30</v>
@@ -12787,10 +12787,10 @@
         <v>25</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
@@ -12804,7 +12804,7 @@
         <v>28</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>30</v>
@@ -12819,10 +12819,10 @@
         <v>25</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
@@ -12836,7 +12836,7 @@
         <v>39</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>30</v>
@@ -12851,10 +12851,10 @@
         <v>16</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
@@ -12883,10 +12883,10 @@
         <v>23</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
@@ -12915,10 +12915,10 @@
         <v>23</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -12947,10 +12947,10 @@
         <v>25</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
@@ -12979,10 +12979,10 @@
         <v>25</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
@@ -13011,10 +13011,10 @@
         <v>25</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
@@ -13043,10 +13043,10 @@
         <v>25</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -13075,10 +13075,10 @@
         <v>25</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -13107,10 +13107,10 @@
         <v>25</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -13139,10 +13139,10 @@
         <v>16</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -13171,10 +13171,10 @@
         <v>25</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -13203,15 +13203,15 @@
         <v>25</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>27</v>
@@ -13235,10 +13235,10 @@
         <v>25</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -13267,10 +13267,10 @@
         <v>25</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -13299,10 +13299,10 @@
         <v>25</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -13331,10 +13331,10 @@
         <v>25</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -13363,10 +13363,10 @@
         <v>25</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -13395,10 +13395,10 @@
         <v>25</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -13412,7 +13412,7 @@
         <v>33</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>30</v>
@@ -13427,10 +13427,10 @@
         <v>25</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -13459,10 +13459,10 @@
         <v>23</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -13476,7 +13476,7 @@
         <v>11</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>60</v>
@@ -13491,10 +13491,10 @@
         <v>16</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -13523,10 +13523,10 @@
         <v>16</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -13555,10 +13555,10 @@
         <v>23</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -13572,7 +13572,7 @@
         <v>39</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>60</v>
@@ -13587,10 +13587,10 @@
         <v>23</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -13619,10 +13619,10 @@
         <v>23</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -13651,10 +13651,10 @@
         <v>23</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -13683,10 +13683,10 @@
         <v>23</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -13700,7 +13700,7 @@
         <v>33</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>30</v>
@@ -13715,10 +13715,10 @@
         <v>25</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -13747,10 +13747,10 @@
         <v>23</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -13779,10 +13779,10 @@
         <v>23</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -13811,10 +13811,10 @@
         <v>25</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -13843,10 +13843,10 @@
         <v>25</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -13875,10 +13875,10 @@
         <v>23</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
@@ -13907,10 +13907,10 @@
         <v>23</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>321</v>
+        <v>688</v>
       </c>
       <c r="J338" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
@@ -13939,10 +13939,10 @@
         <v>25</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
@@ -13974,7 +13974,7 @@
         <v>317</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
@@ -14006,7 +14006,7 @@
         <v>317</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -14038,7 +14038,7 @@
         <v>317</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
@@ -14070,7 +14070,7 @@
         <v>317</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
@@ -14102,12 +14102,12 @@
         <v>317</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>27</v>
@@ -14116,7 +14116,7 @@
         <v>39</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>60</v>
@@ -14134,12 +14134,12 @@
         <v>317</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>27</v>
@@ -14166,21 +14166,21 @@
         <v>317</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D347" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>30</v>
@@ -14198,12 +14198,12 @@
         <v>317</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>27</v>
@@ -14212,7 +14212,7 @@
         <v>28</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>30</v>
@@ -14230,12 +14230,12 @@
         <v>317</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>27</v>
@@ -14244,7 +14244,7 @@
         <v>33</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>60</v>
@@ -14262,12 +14262,12 @@
         <v>317</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>27</v>
@@ -14276,7 +14276,7 @@
         <v>33</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>30</v>
@@ -14294,12 +14294,12 @@
         <v>317</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>27</v>
@@ -14326,12 +14326,12 @@
         <v>317</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>27</v>
@@ -14340,7 +14340,7 @@
         <v>39</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>30</v>
@@ -14358,12 +14358,12 @@
         <v>317</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>27</v>
@@ -14390,12 +14390,12 @@
         <v>317</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>27</v>
@@ -14422,21 +14422,21 @@
         <v>317</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>60</v>
@@ -14454,12 +14454,12 @@
         <v>317</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>27</v>
@@ -14486,12 +14486,12 @@
         <v>317</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>27</v>
@@ -14500,7 +14500,7 @@
         <v>39</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>30</v>
@@ -14518,12 +14518,12 @@
         <v>317</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>27</v>
@@ -14532,7 +14532,7 @@
         <v>39</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>30</v>
@@ -14550,21 +14550,21 @@
         <v>317</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>30</v>
@@ -14582,12 +14582,12 @@
         <v>317</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>27</v>
@@ -14596,7 +14596,7 @@
         <v>33</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>30</v>
@@ -14614,12 +14614,12 @@
         <v>317</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>27</v>
@@ -14628,7 +14628,7 @@
         <v>39</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>60</v>
@@ -14646,12 +14646,12 @@
         <v>317</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>27</v>
@@ -14660,7 +14660,7 @@
         <v>33</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>60</v>
@@ -14678,12 +14678,12 @@
         <v>317</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>27</v>
@@ -14692,7 +14692,7 @@
         <v>33</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>60</v>
@@ -14710,12 +14710,12 @@
         <v>317</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>27</v>
@@ -14742,12 +14742,12 @@
         <v>317</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>27</v>
@@ -14756,7 +14756,7 @@
         <v>33</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>30</v>
@@ -14774,12 +14774,12 @@
         <v>317</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>27</v>
@@ -14788,7 +14788,7 @@
         <v>33</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>30</v>
@@ -14806,21 +14806,21 @@
         <v>317</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D367" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>30</v>
@@ -14838,21 +14838,21 @@
         <v>317</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>30</v>
@@ -14870,12 +14870,12 @@
         <v>317</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>27</v>
@@ -14884,7 +14884,7 @@
         <v>33</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>30</v>
@@ -14902,12 +14902,12 @@
         <v>317</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>27</v>
@@ -14916,7 +14916,7 @@
         <v>39</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>30</v>
@@ -14934,12 +14934,12 @@
         <v>317</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>27</v>
@@ -14948,7 +14948,7 @@
         <v>28</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>30</v>
@@ -14966,12 +14966,12 @@
         <v>317</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>27</v>
@@ -14980,7 +14980,7 @@
         <v>33</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>60</v>
@@ -14998,12 +14998,12 @@
         <v>317</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>27</v>
@@ -15012,7 +15012,7 @@
         <v>33</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>60</v>
@@ -15030,12 +15030,12 @@
         <v>317</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>27</v>
@@ -15044,7 +15044,7 @@
         <v>33</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>60</v>
@@ -15062,12 +15062,12 @@
         <v>317</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>27</v>
@@ -15094,21 +15094,21 @@
         <v>317</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D376" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>30</v>
@@ -15126,12 +15126,12 @@
         <v>317</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>27</v>
@@ -15140,7 +15140,7 @@
         <v>39</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>30</v>
@@ -15158,12 +15158,12 @@
         <v>317</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>27</v>
@@ -15172,7 +15172,7 @@
         <v>11</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>30</v>
@@ -15190,12 +15190,12 @@
         <v>317</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>27</v>
@@ -15222,12 +15222,12 @@
         <v>317</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>27</v>
@@ -15236,7 +15236,7 @@
         <v>33</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>30</v>
@@ -15254,12 +15254,12 @@
         <v>317</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>27</v>
@@ -15268,7 +15268,7 @@
         <v>11</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>30</v>
@@ -15286,12 +15286,12 @@
         <v>317</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>27</v>
@@ -15300,7 +15300,7 @@
         <v>39</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>30</v>
@@ -15318,12 +15318,12 @@
         <v>317</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>27</v>
@@ -15332,7 +15332,7 @@
         <v>33</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>30</v>
@@ -15350,12 +15350,12 @@
         <v>317</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>27</v>
@@ -15364,7 +15364,7 @@
         <v>28</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>30</v>
@@ -15382,12 +15382,12 @@
         <v>317</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>27</v>
@@ -15396,7 +15396,7 @@
         <v>33</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>30</v>
@@ -15414,12 +15414,12 @@
         <v>317</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>27</v>
@@ -15446,12 +15446,12 @@
         <v>317</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>27</v>
@@ -15478,12 +15478,12 @@
         <v>317</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>27</v>
@@ -15492,7 +15492,7 @@
         <v>39</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>30</v>
@@ -15510,12 +15510,12 @@
         <v>317</v>
       </c>
       <c r="J388" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>27</v>
@@ -15524,7 +15524,7 @@
         <v>39</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>30</v>
@@ -15542,12 +15542,12 @@
         <v>317</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>27</v>
@@ -15556,7 +15556,7 @@
         <v>33</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>30</v>
@@ -15574,12 +15574,12 @@
         <v>317</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>27</v>
@@ -15588,7 +15588,7 @@
         <v>39</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>30</v>
@@ -15606,21 +15606,21 @@
         <v>317</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>30</v>
@@ -15638,12 +15638,12 @@
         <v>317</v>
       </c>
       <c r="J392" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>27</v>
@@ -15670,12 +15670,12 @@
         <v>317</v>
       </c>
       <c r="J393" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>27</v>
@@ -15684,7 +15684,7 @@
         <v>33</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>30</v>
@@ -15702,12 +15702,12 @@
         <v>317</v>
       </c>
       <c r="J394" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>27</v>
@@ -15734,12 +15734,12 @@
         <v>317</v>
       </c>
       <c r="J395" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>27</v>
@@ -15748,7 +15748,7 @@
         <v>33</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>60</v>
@@ -15766,12 +15766,12 @@
         <v>317</v>
       </c>
       <c r="J396" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>27</v>
@@ -15780,7 +15780,7 @@
         <v>33</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>30</v>
@@ -15798,21 +15798,21 @@
         <v>317</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D398" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>30</v>
@@ -15830,12 +15830,12 @@
         <v>317</v>
       </c>
       <c r="J398" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>27</v>
@@ -15862,12 +15862,12 @@
         <v>317</v>
       </c>
       <c r="J399" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>7</v>
@@ -15876,7 +15876,7 @@
         <v>39</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>60</v>
@@ -15894,12 +15894,12 @@
         <v>317</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>27</v>
@@ -15926,12 +15926,12 @@
         <v>317</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>27</v>
@@ -15940,7 +15940,7 @@
         <v>33</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>60</v>
@@ -15958,12 +15958,12 @@
         <v>317</v>
       </c>
       <c r="J402" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>27</v>
@@ -15972,7 +15972,7 @@
         <v>33</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>60</v>
@@ -15990,12 +15990,12 @@
         <v>317</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>27</v>
@@ -16022,7 +16022,7 @@
         <v>317</v>
       </c>
       <c r="J404" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
@@ -16036,7 +16036,7 @@
         <v>33</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>30</v>
@@ -16054,7 +16054,7 @@
         <v>318</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -16068,7 +16068,7 @@
         <v>28</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>30</v>
@@ -16086,7 +16086,7 @@
         <v>318</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -16100,7 +16100,7 @@
         <v>11</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>10</v>
@@ -16118,7 +16118,7 @@
         <v>318</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
@@ -16150,7 +16150,7 @@
         <v>318</v>
       </c>
       <c r="J408" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -16164,7 +16164,7 @@
         <v>11</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>10</v>
@@ -16182,7 +16182,7 @@
         <v>318</v>
       </c>
       <c r="J409" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -16214,7 +16214,7 @@
         <v>318</v>
       </c>
       <c r="J410" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
@@ -16246,7 +16246,7 @@
         <v>318</v>
       </c>
       <c r="J411" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
@@ -16278,7 +16278,7 @@
         <v>318</v>
       </c>
       <c r="J412" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
@@ -16310,7 +16310,7 @@
         <v>318</v>
       </c>
       <c r="J413" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
@@ -16324,7 +16324,7 @@
         <v>11</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>10</v>
@@ -16342,7 +16342,7 @@
         <v>318</v>
       </c>
       <c r="J414" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
@@ -16356,7 +16356,7 @@
         <v>28</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>30</v>
@@ -16374,7 +16374,7 @@
         <v>318</v>
       </c>
       <c r="J415" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
@@ -16388,7 +16388,7 @@
         <v>33</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>30</v>
@@ -16406,7 +16406,7 @@
         <v>318</v>
       </c>
       <c r="J416" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
@@ -16420,7 +16420,7 @@
         <v>28</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E417" s="3" t="s">
         <v>10</v>
@@ -16438,7 +16438,7 @@
         <v>318</v>
       </c>
       <c r="J417" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
@@ -16452,7 +16452,7 @@
         <v>33</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>30</v>
@@ -16470,7 +16470,7 @@
         <v>318</v>
       </c>
       <c r="J418" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
@@ -16502,7 +16502,7 @@
         <v>318</v>
       </c>
       <c r="J419" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
@@ -16516,7 +16516,7 @@
         <v>33</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>30</v>
@@ -16534,7 +16534,7 @@
         <v>318</v>
       </c>
       <c r="J420" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
@@ -16548,7 +16548,7 @@
         <v>28</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>30</v>
@@ -16566,7 +16566,7 @@
         <v>318</v>
       </c>
       <c r="J421" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
@@ -16580,7 +16580,7 @@
         <v>33</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>30</v>
@@ -16598,7 +16598,7 @@
         <v>318</v>
       </c>
       <c r="J422" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
@@ -16612,7 +16612,7 @@
         <v>33</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>30</v>
@@ -16630,7 +16630,7 @@
         <v>318</v>
       </c>
       <c r="J423" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
@@ -16644,7 +16644,7 @@
         <v>11</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>10</v>
@@ -16662,7 +16662,7 @@
         <v>318</v>
       </c>
       <c r="J424" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
@@ -16676,7 +16676,7 @@
         <v>11</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>10</v>
@@ -16694,7 +16694,7 @@
         <v>318</v>
       </c>
       <c r="J425" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
@@ -16708,7 +16708,7 @@
         <v>11</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>10</v>
@@ -16726,7 +16726,7 @@
         <v>318</v>
       </c>
       <c r="J426" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
